--- a/plotpackage/myproject/version3/sites.xlsx
+++ b/plotpackage/myproject/version3/sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="12" r:id="rId1"/>
@@ -973,13 +973,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -991,10 +994,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1012,6 +1012,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,15 +1029,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -1474,7 +1474,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC2" s="93" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="60" t="s">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="60" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1563,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC3" s="93"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="60" t="s">
         <v>25</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="60" t="s">
         <v>84</v>
       </c>
@@ -1634,7 +1634,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC4" s="93"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="60" t="s">
         <v>84</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -1739,7 +1739,7 @@
         <f t="shared" ref="AA5:AA34" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/3, 0))</f>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC5" s="93" t="s">
+      <c r="AC5" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD5" s="60" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="93"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="60" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1828,7 @@
         <f t="shared" si="18"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC6" s="93"/>
+      <c r="AC6" s="94"/>
       <c r="AD6" s="60" t="s">
         <v>25</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
@@ -1893,7 +1893,7 @@
         <f t="shared" si="18"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC7" s="93"/>
+      <c r="AC7" s="94"/>
       <c r="AD7" s="60" t="s">
         <v>84</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -1992,7 +1992,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC8" s="93" t="s">
+      <c r="AC8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD8" s="60" t="s">
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -2077,7 +2077,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC9" s="93" t="s">
+      <c r="AC9" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD9" s="60" t="s">
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="60" t="s">
@@ -2146,7 +2146,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC10" s="93" t="s">
+      <c r="AC10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="60" t="s">
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="60" t="s">
@@ -2247,7 +2247,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC11" s="93" t="s">
+      <c r="AC11" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD11" s="60" t="s">
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="60" t="s">
@@ -2290,19 +2290,19 @@
         <v>-297.12292097</v>
       </c>
       <c r="L12" s="63" t="str">
-        <f t="shared" ref="L12:L16" si="36">INDEX($B$2:$B$4, MATCH(MIN(C11:C13),C11:C13,0))</f>
+        <f t="shared" ref="L12" si="36">INDEX($B$2:$B$4, MATCH(MIN(C11:C13),C11:C13,0))</f>
         <v>top1</v>
       </c>
       <c r="M12" s="63" t="str">
-        <f t="shared" ref="M12:M16" si="37">INDEX($B$2:$B$4, MATCH(MIN(D11:D13),D11:D13,0))</f>
+        <f t="shared" ref="M12" si="37">INDEX($B$2:$B$4, MATCH(MIN(D11:D13),D11:D13,0))</f>
         <v>top1</v>
       </c>
       <c r="N12" s="63" t="str">
-        <f t="shared" ref="N12:N16" si="38">INDEX($B$2:$B$4, MATCH(MIN(E11:E13),E11:E13,0))</f>
+        <f t="shared" ref="N12" si="38">INDEX($B$2:$B$4, MATCH(MIN(E11:E13),E11:E13,0))</f>
         <v>top1</v>
       </c>
       <c r="O12" s="63" t="str">
-        <f t="shared" ref="O12:O16" si="39">INDEX($B$2:$B$4, MATCH(MIN(F11:F13),F11:F13,0))</f>
+        <f t="shared" ref="O12" si="39">INDEX($B$2:$B$4, MATCH(MIN(F11:F13),F11:F13,0))</f>
         <v>hollow</v>
       </c>
       <c r="S12" s="8"/>
@@ -2332,7 +2332,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC12" s="93" t="s">
+      <c r="AC12" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD12" s="60" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="60" t="s">
@@ -2401,7 +2401,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC13" s="93" t="s">
+      <c r="AC13" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD13" s="60" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="60" t="s">
@@ -2502,7 +2502,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC14" s="96" t="s">
+      <c r="AC14" s="97" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="60" t="s">
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="60" t="s">
@@ -2545,19 +2545,19 @@
         <v>-297.21570274999999</v>
       </c>
       <c r="L15" s="63" t="str">
-        <f t="shared" ref="L15:L16" si="44">INDEX($B$2:$B$4, MATCH(MIN(C14:C16),C14:C16,0))</f>
+        <f t="shared" ref="L15" si="44">INDEX($B$2:$B$4, MATCH(MIN(C14:C16),C14:C16,0))</f>
         <v>hollow</v>
       </c>
       <c r="M15" s="63" t="str">
-        <f t="shared" ref="M15:M16" si="45">INDEX($B$2:$B$4, MATCH(MIN(D14:D16),D14:D16,0))</f>
+        <f t="shared" ref="M15" si="45">INDEX($B$2:$B$4, MATCH(MIN(D14:D16),D14:D16,0))</f>
         <v>top1</v>
       </c>
       <c r="N15" s="63" t="str">
-        <f t="shared" ref="N15:N16" si="46">INDEX($B$2:$B$4, MATCH(MIN(E14:E16),E14:E16,0))</f>
+        <f t="shared" ref="N15" si="46">INDEX($B$2:$B$4, MATCH(MIN(E14:E16),E14:E16,0))</f>
         <v>hollow</v>
       </c>
       <c r="O15" s="63" t="str">
-        <f t="shared" ref="O15:O16" si="47">INDEX($B$2:$B$4, MATCH(MIN(F14:F16),F14:F16,0))</f>
+        <f t="shared" ref="O15" si="47">INDEX($B$2:$B$4, MATCH(MIN(F14:F16),F14:F16,0))</f>
         <v>top1</v>
       </c>
       <c r="S15" s="8"/>
@@ -2587,7 +2587,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC15" s="97"/>
+      <c r="AC15" s="98"/>
       <c r="AD15" s="60" t="s">
         <v>25</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="60" t="s">
@@ -2654,7 +2654,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC16" s="98"/>
+      <c r="AC16" s="99"/>
       <c r="AD16" s="60" t="s">
         <v>84</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -2753,7 +2753,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC17" s="93" t="s">
+      <c r="AC17" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD17" s="60" t="s">
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
@@ -2838,7 +2838,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC18" s="93" t="s">
+      <c r="AC18" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="60" t="s">
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -2907,7 +2907,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC19" s="93" t="s">
+      <c r="AC19" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="60" t="s">
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="60" t="s">
@@ -3008,7 +3008,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC20" s="93" t="s">
+      <c r="AC20" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD20" s="60" t="s">
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -3092,7 +3092,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC21" s="93" t="s">
+      <c r="AC21" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD21" s="60" t="s">
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="60" t="s">
@@ -3160,7 +3160,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC22" s="93" t="s">
+      <c r="AC22" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="60" t="s">
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -3260,7 +3260,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC23" s="93" t="s">
+      <c r="AC23" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD23" s="60" t="s">
@@ -3284,7 +3284,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -3322,7 +3322,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC24" s="93" t="s">
+      <c r="AC24" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD24" s="60" t="s">
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -3368,7 +3368,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC25" s="93" t="s">
+      <c r="AC25" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD25" s="60" t="s">
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="60" t="s">
@@ -3446,7 +3446,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC26" s="93" t="s">
+      <c r="AC26" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD26" s="60" t="s">
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="60" t="s">
@@ -3508,7 +3508,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC27" s="93" t="s">
+      <c r="AC27" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD27" s="60" t="s">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="60" t="s">
@@ -3554,7 +3554,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC28" s="93" t="s">
+      <c r="AC28" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD28" s="60" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="60" t="s">
@@ -3632,7 +3632,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC29" s="93" t="s">
+      <c r="AC29" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD29" s="60" t="s">
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="60" t="s">
@@ -3694,7 +3694,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC30" s="93" t="s">
+      <c r="AC30" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD30" s="60" t="s">
@@ -3718,7 +3718,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="60" t="s">
@@ -3740,7 +3740,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC31" s="93" t="s">
+      <c r="AC31" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD31" s="60" t="s">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="60" t="s">
@@ -3818,7 +3818,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC32" s="93" t="s">
+      <c r="AC32" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD32" s="60" t="s">
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="60" t="s">
@@ -3880,7 +3880,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC33" s="93" t="s">
+      <c r="AC33" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD33" s="60" t="s">
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="60" t="s">
@@ -3926,7 +3926,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC34" s="93" t="s">
+      <c r="AC34" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD34" s="60" t="s">
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="60" t="s">
@@ -4004,7 +4004,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z35)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC35" s="93" t="s">
+      <c r="AC35" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD35" s="60" t="s">
@@ -4028,7 +4028,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="60" t="s">
@@ -4066,7 +4066,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z36)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC36" s="93" t="s">
+      <c r="AC36" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD36" s="60" t="s">
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="60" t="s">
@@ -4112,7 +4112,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z37)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC37" s="93" t="s">
+      <c r="AC37" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD37" s="60" t="s">
@@ -4136,7 +4136,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="60" t="s">
@@ -4190,7 +4190,7 @@
         <f t="shared" ref="AA38:AA67" si="139">INDEX($Z$2:$Z$23,ROUND(ROW(Z38)/3, 0))</f>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC38" s="93" t="s">
+      <c r="AC38" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD38" s="60" t="s">
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="60" t="s">
@@ -4252,7 +4252,7 @@
         <f t="shared" si="139"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC39" s="93" t="s">
+      <c r="AC39" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD39" s="60" t="s">
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="60" t="s">
@@ -4298,7 +4298,7 @@
         <f t="shared" si="139"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC40" s="93" t="s">
+      <c r="AC40" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD40" s="60" t="s">
@@ -4322,7 +4322,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="60" t="s">
@@ -4376,7 +4376,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC41" s="93" t="s">
+      <c r="AC41" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD41" s="60" t="s">
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="60" t="s">
@@ -4438,7 +4438,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC42" s="93" t="s">
+      <c r="AC42" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD42" s="60" t="s">
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="60" t="s">
@@ -4484,7 +4484,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC43" s="93" t="s">
+      <c r="AC43" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD43" s="60" t="s">
@@ -4508,7 +4508,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="60" t="s">
@@ -4562,7 +4562,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC44" s="93" t="s">
+      <c r="AC44" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD44" s="60" t="s">
@@ -4586,7 +4586,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -4624,7 +4624,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC45" s="93" t="s">
+      <c r="AC45" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD45" s="60" t="s">
@@ -4648,7 +4648,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="60" t="s">
@@ -4670,7 +4670,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC46" s="93" t="s">
+      <c r="AC46" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD46" s="60" t="s">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="60" t="s">
@@ -4748,7 +4748,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC47" s="93" t="s">
+      <c r="AC47" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD47" s="60" t="s">
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="60" t="s">
@@ -4810,7 +4810,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC48" s="93" t="s">
+      <c r="AC48" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD48" s="60" t="s">
@@ -4834,7 +4834,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="60" t="s">
@@ -4856,7 +4856,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC49" s="93" t="s">
+      <c r="AC49" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD49" s="60" t="s">
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="60" t="s">
@@ -4934,7 +4934,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC50" s="93" t="s">
+      <c r="AC50" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD50" s="60" t="s">
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="60" t="s">
@@ -4996,7 +4996,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC51" s="93" t="s">
+      <c r="AC51" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD51" s="60" t="s">
@@ -5020,7 +5020,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="60" t="s">
@@ -5042,7 +5042,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC52" s="93" t="s">
+      <c r="AC52" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD52" s="60" t="s">
@@ -5066,7 +5066,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="60" t="s">
@@ -5120,7 +5120,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC53" s="95" t="s">
+      <c r="AC53" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AD53" s="60" t="s">
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="60" t="s">
@@ -5182,7 +5182,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC54" s="95" t="s">
+      <c r="AC54" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AD54" s="60" t="s">
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="60" t="s">
@@ -5228,7 +5228,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC55" s="95" t="s">
+      <c r="AC55" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AD55" s="60" t="s">
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="93" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="60" t="s">
@@ -5306,7 +5306,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC56" s="95" t="s">
+      <c r="AC56" s="93" t="s">
         <v>89</v>
       </c>
       <c r="AD56" s="60" t="s">
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="93" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="60" t="s">
@@ -5368,7 +5368,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC57" s="95" t="s">
+      <c r="AC57" s="93" t="s">
         <v>89</v>
       </c>
       <c r="AD57" s="60" t="s">
@@ -5392,7 +5392,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="93" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="60" t="s">
@@ -5414,7 +5414,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC58" s="95" t="s">
+      <c r="AC58" s="93" t="s">
         <v>89</v>
       </c>
       <c r="AD58" s="60" t="s">
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="93" t="s">
         <v>90</v>
       </c>
       <c r="B59" s="60" t="s">
@@ -5492,7 +5492,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC59" s="95" t="s">
+      <c r="AC59" s="93" t="s">
         <v>90</v>
       </c>
       <c r="AD59" s="60" t="s">
@@ -5516,7 +5516,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="93" t="s">
         <v>90</v>
       </c>
       <c r="B60" s="60" t="s">
@@ -5554,7 +5554,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC60" s="95" t="s">
+      <c r="AC60" s="93" t="s">
         <v>90</v>
       </c>
       <c r="AD60" s="60" t="s">
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="93" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="60" t="s">
@@ -5600,7 +5600,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC61" s="95" t="s">
+      <c r="AC61" s="93" t="s">
         <v>90</v>
       </c>
       <c r="AD61" s="60" t="s">
@@ -5624,7 +5624,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="60" t="s">
@@ -5678,7 +5678,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC62" s="95" t="s">
+      <c r="AC62" s="93" t="s">
         <v>91</v>
       </c>
       <c r="AD62" s="60" t="s">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B63" s="60" t="s">
@@ -5740,7 +5740,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC63" s="95" t="s">
+      <c r="AC63" s="93" t="s">
         <v>91</v>
       </c>
       <c r="AD63" s="60" t="s">
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="60" t="s">
@@ -5786,7 +5786,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC64" s="95" t="s">
+      <c r="AC64" s="93" t="s">
         <v>91</v>
       </c>
       <c r="AD64" s="60" t="s">
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="60" t="s">
@@ -5864,7 +5864,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC65" s="95" t="s">
+      <c r="AC65" s="93" t="s">
         <v>92</v>
       </c>
       <c r="AD65" s="60" t="s">
@@ -5888,7 +5888,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="60" t="s">
@@ -5926,7 +5926,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC66" s="95" t="s">
+      <c r="AC66" s="93" t="s">
         <v>92</v>
       </c>
       <c r="AD66" s="60" t="s">
@@ -5950,7 +5950,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B67" s="60" t="s">
@@ -5972,7 +5972,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC67" s="95" t="s">
+      <c r="AC67" s="93" t="s">
         <v>92</v>
       </c>
       <c r="AD67" s="60" t="s">
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A72" s="99" t="s">
+      <c r="A72" s="95" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -6079,7 +6079,7 @@
       <c r="AA72">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>70</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A73" s="100"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="AA73">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC73" s="94"/>
+      <c r="AC73" s="100"/>
       <c r="AD73" s="64" t="s">
         <v>84</v>
       </c>
@@ -6157,11 +6157,31 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="AC50:AC52"/>
+    <mergeCell ref="AC72:AC73"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AC38:AC40"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="AC44:AC46"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="AC56:AC58"/>
+    <mergeCell ref="AC59:AC61"/>
+    <mergeCell ref="AC62:AC64"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AC26:AC28"/>
+    <mergeCell ref="AC29:AC31"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AC14:AC16"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A72:A73"/>
@@ -6178,31 +6198,11 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="AC29:AC31"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC50:AC52"/>
-    <mergeCell ref="AC72:AC73"/>
-    <mergeCell ref="AC35:AC37"/>
-    <mergeCell ref="AC38:AC40"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="AC44:AC46"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AC53:AC55"/>
-    <mergeCell ref="AC56:AC58"/>
-    <mergeCell ref="AC59:AC61"/>
-    <mergeCell ref="AC62:AC64"/>
-    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8950,7 +8950,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z1)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -9039,7 +9039,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>84</v>
       </c>
@@ -9144,7 +9144,7 @@
         <f t="shared" ref="AA4:AA45" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/2, 0))</f>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC4" s="94" t="s">
+      <c r="AC4" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD4" s="64" t="s">
@@ -9233,7 +9233,7 @@
         <f t="shared" si="18"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>84</v>
       </c>
@@ -9338,7 +9338,7 @@
         <f t="shared" si="18"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD6" s="64" t="s">
@@ -9423,7 +9423,7 @@
         <f t="shared" si="18"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC7" s="94" t="s">
+      <c r="AC7" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -9524,7 +9524,7 @@
         <f t="shared" si="18"/>
         <v>-324.92552229</v>
       </c>
-      <c r="AC8" s="99" t="s">
+      <c r="AC8" s="95" t="s">
         <v>87</v>
       </c>
       <c r="AD8" s="64" t="s">
@@ -9607,7 +9607,7 @@
         <f t="shared" si="18"/>
         <v>-324.92552229</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="96"/>
       <c r="AD9" s="64" t="s">
         <v>84</v>
       </c>
@@ -9706,7 +9706,7 @@
         <f t="shared" si="18"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD10" s="64" t="s">
@@ -9791,7 +9791,7 @@
         <f t="shared" si="18"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="64" t="s">
@@ -9892,7 +9892,7 @@
         <f t="shared" si="18"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -9977,7 +9977,7 @@
         <f t="shared" si="18"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -10078,7 +10078,7 @@
         <f t="shared" si="18"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -10163,7 +10163,7 @@
         <f t="shared" si="18"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -10264,7 +10264,7 @@
         <f t="shared" si="18"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -10349,7 +10349,7 @@
         <f t="shared" si="18"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -10450,7 +10450,7 @@
         <f t="shared" si="18"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -10535,7 +10535,7 @@
         <f t="shared" si="18"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -10635,7 +10635,7 @@
         <f t="shared" si="18"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -10719,7 +10719,7 @@
         <f t="shared" si="18"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -10819,7 +10819,7 @@
         <f t="shared" si="18"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -10903,7 +10903,7 @@
         <f t="shared" si="18"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -10981,7 +10981,7 @@
         <f t="shared" si="18"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -11043,7 +11043,7 @@
         <f t="shared" si="18"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -11121,7 +11121,7 @@
         <f t="shared" si="18"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -11183,7 +11183,7 @@
         <f t="shared" si="18"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -11261,7 +11261,7 @@
         <f t="shared" si="18"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -11323,7 +11323,7 @@
         <f t="shared" si="18"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -11401,7 +11401,7 @@
         <f t="shared" si="18"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -11463,7 +11463,7 @@
         <f t="shared" si="18"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -11541,7 +11541,7 @@
         <f t="shared" si="18"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -11603,7 +11603,7 @@
         <f t="shared" si="18"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -11681,7 +11681,7 @@
         <f t="shared" si="18"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -11743,7 +11743,7 @@
         <f t="shared" si="18"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -12468,18 +12468,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AC42:AC43"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -12490,28 +12500,18 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15110,8 +15110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15816,7 +15816,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20537,7 +20537,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="4" t="s">
@@ -20625,7 +20625,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="4" t="s">
         <v>25</v>
       </c>
@@ -20695,7 +20695,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="4" t="s">
         <v>8</v>
       </c>
@@ -20765,7 +20765,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="4" t="s">
         <v>26</v>
       </c>
@@ -20869,7 +20869,7 @@
         <f t="shared" ref="AA6:AA69" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z6)/4, 0))</f>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="4" t="s">
@@ -20951,7 +20951,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="100"/>
       <c r="AD7" s="4" t="s">
         <v>25</v>
       </c>
@@ -21015,7 +21015,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="4" t="s">
         <v>8</v>
       </c>
@@ -21079,7 +21079,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="4" t="s">
         <v>26</v>
       </c>
@@ -21177,7 +21177,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="4" t="s">
@@ -21261,7 +21261,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
@@ -21329,7 +21329,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="4" t="s">
@@ -21397,7 +21397,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="4" t="s">
@@ -21481,7 +21481,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD14" s="4" t="s">
@@ -21565,7 +21565,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD15" s="4" t="s">
@@ -21633,7 +21633,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD16" s="4" t="s">
@@ -21701,7 +21701,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="4" t="s">
@@ -21801,7 +21801,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="4" t="s">
@@ -21885,7 +21885,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="4" t="s">
@@ -21953,7 +21953,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="4" t="s">
@@ -22021,7 +22021,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="4" t="s">
@@ -22121,7 +22121,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="4" t="s">
@@ -22205,7 +22205,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="4" t="s">
@@ -22251,7 +22251,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="4" t="s">
@@ -22297,7 +22297,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="4" t="s">
@@ -22375,7 +22375,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD26" s="4" t="s">
@@ -22437,7 +22437,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="4" t="s">
@@ -22483,7 +22483,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="4" t="s">
@@ -22529,7 +22529,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="4" t="s">
@@ -22607,7 +22607,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD30" s="4" t="s">
@@ -22669,7 +22669,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD31" s="4" t="s">
@@ -22718,7 +22718,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="4" t="s">
@@ -22764,7 +22764,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="4" t="s">
@@ -22842,7 +22842,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD34" s="4" t="s">
@@ -22904,7 +22904,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD35" s="4" t="s">
@@ -22950,7 +22950,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD36" s="4" t="s">
@@ -22999,7 +22999,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="4" t="s">
@@ -23077,7 +23077,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD38" s="4" t="s">
@@ -23139,7 +23139,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="4" t="s">
@@ -23185,7 +23185,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="4" t="s">
@@ -23231,7 +23231,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD41" s="4" t="s">
@@ -23309,7 +23309,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD42" s="4" t="s">
@@ -23371,7 +23371,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD43" s="4" t="s">
@@ -23417,7 +23417,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD44" s="4" t="s">
@@ -23463,7 +23463,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD45" s="4" t="s">
@@ -23541,7 +23541,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD46" s="4" t="s">
@@ -23603,7 +23603,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD47" s="4" t="s">
@@ -23649,7 +23649,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD48" s="4" t="s">
@@ -23695,7 +23695,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="4" t="s">
@@ -23773,7 +23773,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="4" t="s">
@@ -23835,7 +23835,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD51" s="4" t="s">
@@ -23881,7 +23881,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD52" s="4" t="s">
@@ -23927,7 +23927,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="4" t="s">
@@ -24005,7 +24005,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="4" t="s">
@@ -24067,7 +24067,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD55" s="4" t="s">
@@ -24113,7 +24113,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD56" s="4" t="s">
@@ -24159,7 +24159,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD57" s="4" t="s">
@@ -24237,7 +24237,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD58" s="4" t="s">
@@ -24299,7 +24299,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD59" s="4" t="s">
@@ -24345,7 +24345,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD60" s="4" t="s">
@@ -24391,7 +24391,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD61" s="4" t="s">
@@ -24465,7 +24465,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="4" t="s">
@@ -24527,7 +24527,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD63" s="4" t="s">
@@ -24573,7 +24573,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD64" s="4" t="s">
@@ -24619,7 +24619,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD65" s="4" t="s">
@@ -24697,7 +24697,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD66" s="4" t="s">
@@ -24759,7 +24759,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD67" s="4" t="s">
@@ -24805,7 +24805,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD68" s="4" t="s">
@@ -24851,7 +24851,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD69" s="4" t="s">
@@ -24925,7 +24925,7 @@
         <f t="shared" ref="AA70:AA89" si="186">INDEX($Z$2:$Z$23,ROUND(ROW(Z70)/4, 0))</f>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD70" s="4" t="s">
@@ -24987,7 +24987,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD71" s="4" t="s">
@@ -25033,7 +25033,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD72" s="4" t="s">
@@ -25079,7 +25079,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD73" s="4" t="s">
@@ -25157,7 +25157,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD74" s="4" t="s">
@@ -25219,7 +25219,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD75" s="4" t="s">
@@ -25265,7 +25265,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD76" s="4" t="s">
@@ -25311,7 +25311,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD77" s="4" t="s">
@@ -25385,7 +25385,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD78" s="4" t="s">
@@ -25447,7 +25447,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD79" s="4" t="s">
@@ -25493,7 +25493,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD80" s="4" t="s">
@@ -25539,7 +25539,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD81" s="4" t="s">
@@ -25617,7 +25617,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD82" s="4" t="s">
@@ -25679,7 +25679,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD83" s="4" t="s">
@@ -25725,7 +25725,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD84" s="4" t="s">
@@ -25771,7 +25771,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD85" s="4" t="s">
@@ -25845,7 +25845,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD86" s="4" t="s">
@@ -25907,7 +25907,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD87" s="4" t="s">
@@ -25953,7 +25953,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD88" s="4" t="s">
@@ -25999,7 +25999,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD89" s="4" t="s">
@@ -26024,18 +26024,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="AC70:AC73"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AC82:AC85"/>
+    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="AC66:AC69"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC14:AC17"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -26046,28 +26056,18 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC66:AC69"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC70:AC73"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AC82:AC85"/>
-    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -28892,7 +28892,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -28981,7 +28981,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -29052,7 +29052,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="64" t="s">
         <v>8</v>
       </c>
@@ -29123,7 +29123,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>26</v>
       </c>
@@ -29228,7 +29228,7 @@
         <f t="shared" ref="AA6:AA69" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z6)/4, 0))</f>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="64" t="s">
@@ -29311,7 +29311,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="100"/>
       <c r="AD7" s="64" t="s">
         <v>25</v>
       </c>
@@ -29376,7 +29376,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="64" t="s">
         <v>8</v>
       </c>
@@ -29441,7 +29441,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>26</v>
       </c>
@@ -29540,7 +29540,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="64" t="s">
@@ -29625,7 +29625,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="64" t="s">
@@ -29694,7 +29694,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -29763,7 +29763,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -29864,7 +29864,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -29949,7 +29949,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -30018,7 +30018,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -30087,7 +30087,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -30188,7 +30188,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -30273,7 +30273,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -30342,7 +30342,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -30411,7 +30411,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -30511,7 +30511,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -30595,7 +30595,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -30641,7 +30641,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -30687,7 +30687,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -30765,7 +30765,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -30827,7 +30827,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -30873,7 +30873,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -30919,7 +30919,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -30997,7 +30997,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -31059,7 +31059,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -31105,7 +31105,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -31151,7 +31151,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -31229,7 +31229,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -31291,7 +31291,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -31337,7 +31337,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -31383,7 +31383,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -31461,7 +31461,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -31523,7 +31523,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -31569,7 +31569,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -31615,7 +31615,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -31693,7 +31693,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -31755,7 +31755,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -31801,7 +31801,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -31847,7 +31847,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -31925,7 +31925,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -31987,7 +31987,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -32033,7 +32033,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -32079,7 +32079,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -32157,7 +32157,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -32219,7 +32219,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -32265,7 +32265,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -32311,7 +32311,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -32389,7 +32389,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -32451,7 +32451,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -32497,7 +32497,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -32543,7 +32543,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -32621,7 +32621,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -32683,7 +32683,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -32729,7 +32729,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -32775,7 +32775,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -32853,7 +32853,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -32915,7 +32915,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -32961,7 +32961,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -33007,7 +33007,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -33085,7 +33085,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -33147,7 +33147,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -33193,7 +33193,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -33239,7 +33239,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -33317,7 +33317,7 @@
         <f t="shared" ref="AA70:AA89" si="192">INDEX($Z$2:$Z$23,ROUND(ROW(Z70)/4, 0))</f>
         <v>-271.78683529</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -33379,7 +33379,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -33425,7 +33425,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -33471,7 +33471,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -33549,7 +33549,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -33611,7 +33611,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -33657,7 +33657,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -33703,7 +33703,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -33781,7 +33781,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -33843,7 +33843,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -33889,7 +33889,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -33935,7 +33935,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -34013,7 +34013,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -34075,7 +34075,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -34121,7 +34121,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -34167,7 +34167,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -34245,7 +34245,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -34307,7 +34307,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -34353,7 +34353,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -34399,7 +34399,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -34424,18 +34424,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="AC70:AC73"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AC82:AC85"/>
+    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="AC66:AC69"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC14:AC17"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -34446,28 +34456,18 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC66:AC69"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC70:AC73"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AC82:AC85"/>
-    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -37292,7 +37292,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -37381,7 +37381,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -37452,7 +37452,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="64" t="s">
         <v>8</v>
       </c>
@@ -37523,7 +37523,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>26</v>
       </c>
@@ -37594,7 +37594,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC6" s="94"/>
+      <c r="AC6" s="100"/>
       <c r="AD6" s="64" t="s">
         <v>28</v>
       </c>
@@ -37693,7 +37693,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC7" s="94" t="s">
+      <c r="AC7" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -37776,7 +37776,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="64" t="s">
         <v>25</v>
       </c>
@@ -37841,7 +37841,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>8</v>
       </c>
@@ -37906,7 +37906,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC10" s="94"/>
+      <c r="AC10" s="100"/>
       <c r="AD10" s="64" t="s">
         <v>26</v>
       </c>
@@ -37971,7 +37971,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC11" s="94"/>
+      <c r="AC11" s="100"/>
       <c r="AD11" s="64" t="s">
         <v>28</v>
       </c>
@@ -38070,7 +38070,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -38155,7 +38155,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -38224,7 +38224,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -38293,7 +38293,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -38362,7 +38362,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -38463,7 +38463,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -38548,7 +38548,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -38617,7 +38617,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -38686,7 +38686,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -38755,7 +38755,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -38856,7 +38856,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -38940,7 +38940,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -38986,7 +38986,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -39032,7 +39032,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -39078,7 +39078,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -39156,7 +39156,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -39218,7 +39218,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -39264,7 +39264,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -39310,7 +39310,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -39356,7 +39356,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -39434,7 +39434,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -39496,7 +39496,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -39542,7 +39542,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -39588,7 +39588,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -39634,7 +39634,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -39712,7 +39712,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -39774,7 +39774,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -39820,7 +39820,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -39866,7 +39866,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -39912,7 +39912,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -39990,7 +39990,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -40052,7 +40052,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -40098,7 +40098,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -40144,7 +40144,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -40190,7 +40190,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -40268,7 +40268,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -40330,7 +40330,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -40376,7 +40376,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -40422,7 +40422,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -40468,7 +40468,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -40546,7 +40546,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -40608,7 +40608,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -40654,7 +40654,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -40700,7 +40700,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -40746,7 +40746,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -40824,7 +40824,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -40886,7 +40886,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -40932,7 +40932,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -40978,7 +40978,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -41024,7 +41024,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -41102,7 +41102,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -41164,7 +41164,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -41210,7 +41210,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -41256,7 +41256,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -41302,7 +41302,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -41380,7 +41380,7 @@
         <f t="shared" ref="AA67:AA111" si="154">INDEX($Z$2:$Z$23,ROUND(ROW(Z68)/5, 0))</f>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -41442,7 +41442,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -41488,7 +41488,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -41534,7 +41534,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -41580,7 +41580,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -41658,7 +41658,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -41720,7 +41720,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -41766,7 +41766,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -41812,7 +41812,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -41858,7 +41858,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -41936,7 +41936,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -41998,7 +41998,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -42044,7 +42044,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -42090,7 +42090,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -42136,7 +42136,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -42214,7 +42214,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -42276,7 +42276,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -42322,7 +42322,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -42368,7 +42368,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -42414,7 +42414,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -42492,7 +42492,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -42554,7 +42554,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -42600,7 +42600,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -42646,7 +42646,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC90" s="94" t="s">
+      <c r="AC90" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD90" s="64" t="s">
@@ -42692,7 +42692,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC91" s="94" t="s">
+      <c r="AC91" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD91" s="64" t="s">
@@ -42770,7 +42770,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC92" s="94" t="s">
+      <c r="AC92" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD92" s="64" t="s">
@@ -42832,7 +42832,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC93" s="94" t="s">
+      <c r="AC93" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD93" s="64" t="s">
@@ -42878,7 +42878,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC94" s="94" t="s">
+      <c r="AC94" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD94" s="64" t="s">
@@ -42924,7 +42924,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC95" s="94" t="s">
+      <c r="AC95" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD95" s="64" t="s">
@@ -42970,7 +42970,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC96" s="94" t="s">
+      <c r="AC96" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD96" s="64" t="s">
@@ -43048,7 +43048,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC97" s="94" t="s">
+      <c r="AC97" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD97" s="64" t="s">
@@ -43110,7 +43110,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC98" s="94" t="s">
+      <c r="AC98" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD98" s="64" t="s">
@@ -43156,7 +43156,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC99" s="94" t="s">
+      <c r="AC99" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD99" s="64" t="s">
@@ -43202,7 +43202,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC100" s="94" t="s">
+      <c r="AC100" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD100" s="64" t="s">
@@ -43248,7 +43248,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC101" s="94" t="s">
+      <c r="AC101" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD101" s="64" t="s">
@@ -43326,7 +43326,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC102" s="94" t="s">
+      <c r="AC102" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD102" s="64" t="s">
@@ -43388,7 +43388,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC103" s="94" t="s">
+      <c r="AC103" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD103" s="64" t="s">
@@ -43434,7 +43434,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC104" s="94" t="s">
+      <c r="AC104" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD104" s="64" t="s">
@@ -43480,7 +43480,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC105" s="94" t="s">
+      <c r="AC105" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD105" s="64" t="s">
@@ -43526,7 +43526,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC106" s="94" t="s">
+      <c r="AC106" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD106" s="64" t="s">
@@ -43604,7 +43604,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC107" s="94" t="s">
+      <c r="AC107" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD107" s="64" t="s">
@@ -43666,7 +43666,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC108" s="94" t="s">
+      <c r="AC108" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD108" s="64" t="s">
@@ -43712,7 +43712,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC109" s="94" t="s">
+      <c r="AC109" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD109" s="64" t="s">
@@ -43758,7 +43758,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC110" s="94" t="s">
+      <c r="AC110" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD110" s="64" t="s">
@@ -43804,7 +43804,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC111" s="94" t="s">
+      <c r="AC111" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD111" s="64" t="s">
@@ -43829,18 +43829,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="AC87:AC91"/>
+    <mergeCell ref="AC92:AC96"/>
+    <mergeCell ref="AC97:AC101"/>
+    <mergeCell ref="AC102:AC106"/>
+    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="AC82:AC86"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC17:AC21"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="A77:A81"/>
@@ -43851,28 +43861,18 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC82:AC86"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC87:AC91"/>
-    <mergeCell ref="AC92:AC96"/>
-    <mergeCell ref="AC97:AC101"/>
-    <mergeCell ref="AC102:AC106"/>
-    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -46480,7 +46480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC77" sqref="AC77:AH81"/>
     </sheetView>
   </sheetViews>
@@ -46628,7 +46628,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -46717,7 +46717,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -46788,7 +46788,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="64" t="s">
         <v>32</v>
       </c>
@@ -46859,7 +46859,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>8</v>
       </c>
@@ -46930,7 +46930,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC6" s="94"/>
+      <c r="AC6" s="100"/>
       <c r="AD6" s="64" t="s">
         <v>26</v>
       </c>
@@ -47029,7 +47029,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC7" s="94" t="s">
+      <c r="AC7" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -47112,7 +47112,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="64" t="s">
         <v>25</v>
       </c>
@@ -47177,7 +47177,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>32</v>
       </c>
@@ -47242,7 +47242,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC10" s="94"/>
+      <c r="AC10" s="100"/>
       <c r="AD10" s="64" t="s">
         <v>8</v>
       </c>
@@ -47307,7 +47307,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC11" s="94"/>
+      <c r="AC11" s="100"/>
       <c r="AD11" s="64" t="s">
         <v>26</v>
       </c>
@@ -47406,7 +47406,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -47491,7 +47491,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -47560,7 +47560,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -47629,7 +47629,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -47698,7 +47698,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -47722,7 +47722,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="106" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -47799,7 +47799,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC17" s="106" t="s">
+      <c r="AC17" s="109" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -47823,7 +47823,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="110"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -47882,7 +47882,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC18" s="107"/>
+      <c r="AC18" s="110"/>
       <c r="AD18" s="64" t="s">
         <v>25</v>
       </c>
@@ -47904,7 +47904,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="110"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="60" t="s">
         <v>32</v>
       </c>
@@ -47947,7 +47947,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC19" s="107"/>
+      <c r="AC19" s="110"/>
       <c r="AD19" s="64" t="s">
         <v>32</v>
       </c>
@@ -47969,7 +47969,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
@@ -48012,7 +48012,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC20" s="107"/>
+      <c r="AC20" s="110"/>
       <c r="AD20" s="64" t="s">
         <v>8</v>
       </c>
@@ -48034,7 +48034,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="111"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="60" t="s">
         <v>26</v>
       </c>
@@ -48077,7 +48077,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC21" s="108"/>
+      <c r="AC21" s="111"/>
       <c r="AD21" s="64" t="s">
         <v>26</v>
       </c>
@@ -48176,7 +48176,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -48260,7 +48260,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -48306,7 +48306,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -48352,7 +48352,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -48398,7 +48398,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -48476,7 +48476,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -48538,7 +48538,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -48584,7 +48584,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -48630,7 +48630,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -48676,7 +48676,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -48754,7 +48754,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -48816,7 +48816,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -48862,7 +48862,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -48908,7 +48908,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -48954,7 +48954,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -49032,7 +49032,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -49094,7 +49094,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -49140,7 +49140,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -49186,7 +49186,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -49232,7 +49232,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -49310,7 +49310,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -49372,7 +49372,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -49418,7 +49418,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -49464,7 +49464,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -49510,7 +49510,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -49588,7 +49588,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -49650,7 +49650,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -49696,7 +49696,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -49742,7 +49742,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -49788,7 +49788,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -49866,7 +49866,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -49928,7 +49928,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -49974,7 +49974,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -50020,7 +50020,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -50066,7 +50066,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -50144,7 +50144,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -50206,7 +50206,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -50252,7 +50252,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -50298,7 +50298,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -50344,7 +50344,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -50422,7 +50422,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -50484,7 +50484,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -50530,7 +50530,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -50576,7 +50576,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -50622,7 +50622,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -50700,7 +50700,7 @@
         <f t="shared" ref="AA67:AA111" si="150">INDEX($Z$2:$Z$23,ROUND(ROW(Z68)/5, 0))</f>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -50762,7 +50762,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -50808,7 +50808,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -50854,7 +50854,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -50900,7 +50900,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -50978,7 +50978,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -51040,7 +51040,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -51086,7 +51086,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -51132,7 +51132,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -51178,7 +51178,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -51256,7 +51256,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -51318,7 +51318,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -51364,7 +51364,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -51410,7 +51410,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -51456,7 +51456,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -51534,7 +51534,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -51596,7 +51596,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -51642,7 +51642,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -51688,7 +51688,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -51734,7 +51734,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -51812,7 +51812,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -51874,7 +51874,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -51920,7 +51920,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -51966,7 +51966,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC90" s="94" t="s">
+      <c r="AC90" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD90" s="64" t="s">
@@ -52012,7 +52012,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC91" s="94" t="s">
+      <c r="AC91" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD91" s="64" t="s">
@@ -52090,7 +52090,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC92" s="94" t="s">
+      <c r="AC92" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD92" s="64" t="s">
@@ -52152,7 +52152,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC93" s="94" t="s">
+      <c r="AC93" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD93" s="64" t="s">
@@ -52198,7 +52198,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC94" s="94" t="s">
+      <c r="AC94" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD94" s="64" t="s">
@@ -52244,7 +52244,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC95" s="94" t="s">
+      <c r="AC95" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD95" s="64" t="s">
@@ -52290,7 +52290,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC96" s="94" t="s">
+      <c r="AC96" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD96" s="64" t="s">
@@ -52368,7 +52368,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC97" s="94" t="s">
+      <c r="AC97" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD97" s="64" t="s">
@@ -52430,7 +52430,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC98" s="94" t="s">
+      <c r="AC98" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD98" s="64" t="s">
@@ -52476,7 +52476,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC99" s="94" t="s">
+      <c r="AC99" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD99" s="64" t="s">
@@ -52522,7 +52522,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC100" s="94" t="s">
+      <c r="AC100" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD100" s="64" t="s">
@@ -52568,7 +52568,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC101" s="94" t="s">
+      <c r="AC101" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD101" s="64" t="s">
@@ -52646,7 +52646,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC102" s="94" t="s">
+      <c r="AC102" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD102" s="64" t="s">
@@ -52708,7 +52708,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC103" s="94" t="s">
+      <c r="AC103" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD103" s="64" t="s">
@@ -52754,7 +52754,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC104" s="94" t="s">
+      <c r="AC104" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD104" s="64" t="s">
@@ -52800,7 +52800,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC105" s="94" t="s">
+      <c r="AC105" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD105" s="64" t="s">
@@ -52846,7 +52846,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC106" s="94" t="s">
+      <c r="AC106" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD106" s="64" t="s">
@@ -52924,7 +52924,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC107" s="94" t="s">
+      <c r="AC107" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD107" s="64" t="s">
@@ -52986,7 +52986,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC108" s="94" t="s">
+      <c r="AC108" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD108" s="64" t="s">
@@ -53032,7 +53032,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC109" s="94" t="s">
+      <c r="AC109" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD109" s="64" t="s">
@@ -53078,7 +53078,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC110" s="94" t="s">
+      <c r="AC110" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD110" s="64" t="s">
@@ -53124,7 +53124,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC111" s="94" t="s">
+      <c r="AC111" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD111" s="64" t="s">
@@ -53149,18 +53149,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="AC87:AC91"/>
+    <mergeCell ref="AC92:AC96"/>
+    <mergeCell ref="AC97:AC101"/>
+    <mergeCell ref="AC102:AC106"/>
+    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="AC82:AC86"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC17:AC21"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="A77:A81"/>
@@ -53171,28 +53181,18 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC82:AC86"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC87:AC91"/>
-    <mergeCell ref="AC92:AC96"/>
-    <mergeCell ref="AC97:AC101"/>
-    <mergeCell ref="AC102:AC106"/>
-    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/myproject/version3/sites.xlsx
+++ b/plotpackage/myproject/version3/sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="12" r:id="rId1"/>
@@ -973,16 +973,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -994,7 +991,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1012,6 +1012,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,15 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -1474,7 +1474,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="93" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="60" t="s">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="60" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1563,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="93"/>
       <c r="AD3" s="60" t="s">
         <v>25</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="60" t="s">
         <v>84</v>
       </c>
@@ -1634,7 +1634,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="93"/>
       <c r="AD4" s="60" t="s">
         <v>84</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -1739,7 +1739,7 @@
         <f t="shared" ref="AA5:AA34" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/3, 0))</f>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC5" s="94" t="s">
+      <c r="AC5" s="93" t="s">
         <v>9</v>
       </c>
       <c r="AD5" s="60" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="94"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="60" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1828,7 @@
         <f t="shared" si="18"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC6" s="94"/>
+      <c r="AC6" s="93"/>
       <c r="AD6" s="60" t="s">
         <v>25</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="94"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
@@ -1893,7 +1893,7 @@
         <f t="shared" si="18"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="93"/>
       <c r="AD7" s="60" t="s">
         <v>84</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -1992,7 +1992,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC8" s="94" t="s">
+      <c r="AC8" s="93" t="s">
         <v>10</v>
       </c>
       <c r="AD8" s="60" t="s">
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -2077,7 +2077,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC9" s="94" t="s">
+      <c r="AC9" s="93" t="s">
         <v>10</v>
       </c>
       <c r="AD9" s="60" t="s">
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="60" t="s">
@@ -2146,7 +2146,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="93" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="60" t="s">
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="95" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="60" t="s">
@@ -2247,7 +2247,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="93" t="s">
         <v>87</v>
       </c>
       <c r="AD11" s="60" t="s">
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="95" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="60" t="s">
@@ -2332,7 +2332,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="93" t="s">
         <v>11</v>
       </c>
       <c r="AD12" s="60" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="60" t="s">
@@ -2401,7 +2401,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="93" t="s">
         <v>11</v>
       </c>
       <c r="AD13" s="60" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="60" t="s">
@@ -2502,7 +2502,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC14" s="97" t="s">
+      <c r="AC14" s="96" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="60" t="s">
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="60" t="s">
@@ -2587,7 +2587,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC15" s="98"/>
+      <c r="AC15" s="97"/>
       <c r="AD15" s="60" t="s">
         <v>25</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="60" t="s">
@@ -2654,7 +2654,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC16" s="99"/>
+      <c r="AC16" s="98"/>
       <c r="AD16" s="60" t="s">
         <v>84</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -2753,7 +2753,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="93" t="s">
         <v>12</v>
       </c>
       <c r="AD17" s="60" t="s">
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
@@ -2838,7 +2838,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="93" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="60" t="s">
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -2907,7 +2907,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="93" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="60" t="s">
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="60" t="s">
@@ -3008,7 +3008,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="93" t="s">
         <v>13</v>
       </c>
       <c r="AD20" s="60" t="s">
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -3092,7 +3092,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="93" t="s">
         <v>13</v>
       </c>
       <c r="AD21" s="60" t="s">
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="60" t="s">
@@ -3160,7 +3160,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="93" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="60" t="s">
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -3260,7 +3260,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="93" t="s">
         <v>14</v>
       </c>
       <c r="AD23" s="60" t="s">
@@ -3284,7 +3284,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -3322,7 +3322,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="93" t="s">
         <v>14</v>
       </c>
       <c r="AD24" s="60" t="s">
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -3368,7 +3368,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="93" t="s">
         <v>14</v>
       </c>
       <c r="AD25" s="60" t="s">
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="93" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="60" t="s">
@@ -3446,7 +3446,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="93" t="s">
         <v>15</v>
       </c>
       <c r="AD26" s="60" t="s">
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="93" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="60" t="s">
@@ -3508,7 +3508,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="93" t="s">
         <v>15</v>
       </c>
       <c r="AD27" s="60" t="s">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="93" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="60" t="s">
@@ -3554,7 +3554,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="93" t="s">
         <v>15</v>
       </c>
       <c r="AD28" s="60" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="93" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="60" t="s">
@@ -3632,7 +3632,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AD29" s="60" t="s">
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="93" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="60" t="s">
@@ -3694,7 +3694,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AD30" s="60" t="s">
@@ -3718,7 +3718,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="60" t="s">
@@ -3740,7 +3740,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AD31" s="60" t="s">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="60" t="s">
@@ -3818,7 +3818,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="AD32" s="60" t="s">
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="60" t="s">
@@ -3880,7 +3880,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="93" t="s">
         <v>17</v>
       </c>
       <c r="AD33" s="60" t="s">
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="60" t="s">
@@ -3926,7 +3926,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="93" t="s">
         <v>17</v>
       </c>
       <c r="AD34" s="60" t="s">
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="93" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="60" t="s">
@@ -4004,7 +4004,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z35)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AD35" s="60" t="s">
@@ -4028,7 +4028,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="93" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="60" t="s">
@@ -4066,7 +4066,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z36)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AD36" s="60" t="s">
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="93" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="60" t="s">
@@ -4112,7 +4112,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z37)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AD37" s="60" t="s">
@@ -4136,7 +4136,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="93" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="60" t="s">
@@ -4190,7 +4190,7 @@
         <f t="shared" ref="AA38:AA67" si="139">INDEX($Z$2:$Z$23,ROUND(ROW(Z38)/3, 0))</f>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="93" t="s">
         <v>19</v>
       </c>
       <c r="AD38" s="60" t="s">
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="93" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="60" t="s">
@@ -4252,7 +4252,7 @@
         <f t="shared" si="139"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="93" t="s">
         <v>19</v>
       </c>
       <c r="AD39" s="60" t="s">
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="93" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="60" t="s">
@@ -4298,7 +4298,7 @@
         <f t="shared" si="139"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="93" t="s">
         <v>19</v>
       </c>
       <c r="AD40" s="60" t="s">
@@ -4322,7 +4322,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="93" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="60" t="s">
@@ -4376,7 +4376,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AD41" s="60" t="s">
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="93" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="60" t="s">
@@ -4438,7 +4438,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AD42" s="60" t="s">
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="93" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="60" t="s">
@@ -4484,7 +4484,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AD43" s="60" t="s">
@@ -4508,7 +4508,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="93" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="60" t="s">
@@ -4562,7 +4562,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="93" t="s">
         <v>21</v>
       </c>
       <c r="AD44" s="60" t="s">
@@ -4586,7 +4586,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="93" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -4624,7 +4624,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="93" t="s">
         <v>21</v>
       </c>
       <c r="AD45" s="60" t="s">
@@ -4648,7 +4648,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="93" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="60" t="s">
@@ -4670,7 +4670,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="93" t="s">
         <v>21</v>
       </c>
       <c r="AD46" s="60" t="s">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="60" t="s">
@@ -4748,7 +4748,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="93" t="s">
         <v>22</v>
       </c>
       <c r="AD47" s="60" t="s">
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="60" t="s">
@@ -4810,7 +4810,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="93" t="s">
         <v>22</v>
       </c>
       <c r="AD48" s="60" t="s">
@@ -4834,7 +4834,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="60" t="s">
@@ -4856,7 +4856,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="93" t="s">
         <v>22</v>
       </c>
       <c r="AD49" s="60" t="s">
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="60" t="s">
@@ -4934,7 +4934,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="93" t="s">
         <v>23</v>
       </c>
       <c r="AD50" s="60" t="s">
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="60" t="s">
@@ -4996,7 +4996,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="93" t="s">
         <v>23</v>
       </c>
       <c r="AD51" s="60" t="s">
@@ -5020,7 +5020,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="60" t="s">
@@ -5042,7 +5042,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="93" t="s">
         <v>23</v>
       </c>
       <c r="AD52" s="60" t="s">
@@ -5066,7 +5066,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="95" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="60" t="s">
@@ -5120,7 +5120,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC53" s="93" t="s">
+      <c r="AC53" s="95" t="s">
         <v>88</v>
       </c>
       <c r="AD53" s="60" t="s">
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="95" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="60" t="s">
@@ -5182,7 +5182,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC54" s="93" t="s">
+      <c r="AC54" s="95" t="s">
         <v>88</v>
       </c>
       <c r="AD54" s="60" t="s">
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="95" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="60" t="s">
@@ -5228,7 +5228,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC55" s="93" t="s">
+      <c r="AC55" s="95" t="s">
         <v>88</v>
       </c>
       <c r="AD55" s="60" t="s">
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="95" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="60" t="s">
@@ -5306,7 +5306,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC56" s="93" t="s">
+      <c r="AC56" s="95" t="s">
         <v>89</v>
       </c>
       <c r="AD56" s="60" t="s">
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="95" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="60" t="s">
@@ -5368,7 +5368,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC57" s="93" t="s">
+      <c r="AC57" s="95" t="s">
         <v>89</v>
       </c>
       <c r="AD57" s="60" t="s">
@@ -5392,7 +5392,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A58" s="93" t="s">
+      <c r="A58" s="95" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="60" t="s">
@@ -5414,7 +5414,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC58" s="93" t="s">
+      <c r="AC58" s="95" t="s">
         <v>89</v>
       </c>
       <c r="AD58" s="60" t="s">
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="95" t="s">
         <v>90</v>
       </c>
       <c r="B59" s="60" t="s">
@@ -5492,7 +5492,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC59" s="93" t="s">
+      <c r="AC59" s="95" t="s">
         <v>90</v>
       </c>
       <c r="AD59" s="60" t="s">
@@ -5516,7 +5516,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="95" t="s">
         <v>90</v>
       </c>
       <c r="B60" s="60" t="s">
@@ -5554,7 +5554,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC60" s="93" t="s">
+      <c r="AC60" s="95" t="s">
         <v>90</v>
       </c>
       <c r="AD60" s="60" t="s">
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="95" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="60" t="s">
@@ -5600,7 +5600,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC61" s="93" t="s">
+      <c r="AC61" s="95" t="s">
         <v>90</v>
       </c>
       <c r="AD61" s="60" t="s">
@@ -5624,7 +5624,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="95" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="60" t="s">
@@ -5678,7 +5678,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC62" s="93" t="s">
+      <c r="AC62" s="95" t="s">
         <v>91</v>
       </c>
       <c r="AD62" s="60" t="s">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="95" t="s">
         <v>91</v>
       </c>
       <c r="B63" s="60" t="s">
@@ -5740,7 +5740,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC63" s="93" t="s">
+      <c r="AC63" s="95" t="s">
         <v>91</v>
       </c>
       <c r="AD63" s="60" t="s">
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A64" s="93" t="s">
+      <c r="A64" s="95" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="60" t="s">
@@ -5786,7 +5786,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC64" s="93" t="s">
+      <c r="AC64" s="95" t="s">
         <v>91</v>
       </c>
       <c r="AD64" s="60" t="s">
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="95" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="60" t="s">
@@ -5864,7 +5864,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC65" s="93" t="s">
+      <c r="AC65" s="95" t="s">
         <v>92</v>
       </c>
       <c r="AD65" s="60" t="s">
@@ -5888,7 +5888,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A66" s="93" t="s">
+      <c r="A66" s="95" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="60" t="s">
@@ -5926,7 +5926,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC66" s="93" t="s">
+      <c r="AC66" s="95" t="s">
         <v>92</v>
       </c>
       <c r="AD66" s="60" t="s">
@@ -5950,7 +5950,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="95" t="s">
         <v>92</v>
       </c>
       <c r="B67" s="60" t="s">
@@ -5972,7 +5972,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC67" s="93" t="s">
+      <c r="AC67" s="95" t="s">
         <v>92</v>
       </c>
       <c r="AD67" s="60" t="s">
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="99" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -6079,7 +6079,7 @@
       <c r="AA72">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC72" s="100" t="s">
+      <c r="AC72" s="94" t="s">
         <v>70</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A73" s="96"/>
+      <c r="A73" s="100"/>
       <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="AA73">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC73" s="100"/>
+      <c r="AC73" s="94"/>
       <c r="AD73" s="64" t="s">
         <v>84</v>
       </c>
@@ -6157,31 +6157,11 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AC50:AC52"/>
-    <mergeCell ref="AC72:AC73"/>
-    <mergeCell ref="AC35:AC37"/>
-    <mergeCell ref="AC38:AC40"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="AC44:AC46"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AC53:AC55"/>
-    <mergeCell ref="AC56:AC58"/>
-    <mergeCell ref="AC59:AC61"/>
-    <mergeCell ref="AC62:AC64"/>
-    <mergeCell ref="AC65:AC67"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="AC29:AC31"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A72:A73"/>
@@ -6198,11 +6178,31 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AC26:AC28"/>
+    <mergeCell ref="AC29:AC31"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC50:AC52"/>
+    <mergeCell ref="AC72:AC73"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AC38:AC40"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="AC44:AC46"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="AC56:AC58"/>
+    <mergeCell ref="AC59:AC61"/>
+    <mergeCell ref="AC62:AC64"/>
+    <mergeCell ref="AC65:AC67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8950,7 +8950,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z1)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC2" s="100" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -9039,7 +9039,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC3" s="100"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="64" t="s">
         <v>84</v>
       </c>
@@ -9144,7 +9144,7 @@
         <f t="shared" ref="AA4:AA45" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/2, 0))</f>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC4" s="100" t="s">
+      <c r="AC4" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD4" s="64" t="s">
@@ -9233,7 +9233,7 @@
         <f t="shared" si="18"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC5" s="100"/>
+      <c r="AC5" s="94"/>
       <c r="AD5" s="64" t="s">
         <v>84</v>
       </c>
@@ -9338,7 +9338,7 @@
         <f t="shared" si="18"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC6" s="100" t="s">
+      <c r="AC6" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD6" s="64" t="s">
@@ -9423,7 +9423,7 @@
         <f t="shared" si="18"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC7" s="100" t="s">
+      <c r="AC7" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -9524,7 +9524,7 @@
         <f t="shared" si="18"/>
         <v>-324.92552229</v>
       </c>
-      <c r="AC8" s="95" t="s">
+      <c r="AC8" s="99" t="s">
         <v>87</v>
       </c>
       <c r="AD8" s="64" t="s">
@@ -9607,7 +9607,7 @@
         <f t="shared" si="18"/>
         <v>-324.92552229</v>
       </c>
-      <c r="AC9" s="96"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>84</v>
       </c>
@@ -9706,7 +9706,7 @@
         <f t="shared" si="18"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC10" s="100" t="s">
+      <c r="AC10" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD10" s="64" t="s">
@@ -9791,7 +9791,7 @@
         <f t="shared" si="18"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC11" s="100" t="s">
+      <c r="AC11" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="64" t="s">
@@ -9892,7 +9892,7 @@
         <f t="shared" si="18"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC12" s="100" t="s">
+      <c r="AC12" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -9977,7 +9977,7 @@
         <f t="shared" si="18"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC13" s="100" t="s">
+      <c r="AC13" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -10078,7 +10078,7 @@
         <f t="shared" si="18"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC14" s="100" t="s">
+      <c r="AC14" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -10163,7 +10163,7 @@
         <f t="shared" si="18"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC15" s="100" t="s">
+      <c r="AC15" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -10264,7 +10264,7 @@
         <f t="shared" si="18"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC16" s="100" t="s">
+      <c r="AC16" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -10349,7 +10349,7 @@
         <f t="shared" si="18"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC17" s="100" t="s">
+      <c r="AC17" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -10450,7 +10450,7 @@
         <f t="shared" si="18"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC18" s="100" t="s">
+      <c r="AC18" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -10535,7 +10535,7 @@
         <f t="shared" si="18"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC19" s="100" t="s">
+      <c r="AC19" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -10635,7 +10635,7 @@
         <f t="shared" si="18"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC20" s="100" t="s">
+      <c r="AC20" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -10719,7 +10719,7 @@
         <f t="shared" si="18"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC21" s="100" t="s">
+      <c r="AC21" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -10819,7 +10819,7 @@
         <f t="shared" si="18"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC22" s="100" t="s">
+      <c r="AC22" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -10903,7 +10903,7 @@
         <f t="shared" si="18"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC23" s="100" t="s">
+      <c r="AC23" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -10981,7 +10981,7 @@
         <f t="shared" si="18"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC24" s="100" t="s">
+      <c r="AC24" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -11043,7 +11043,7 @@
         <f t="shared" si="18"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC25" s="100" t="s">
+      <c r="AC25" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -11121,7 +11121,7 @@
         <f t="shared" si="18"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC26" s="100" t="s">
+      <c r="AC26" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -11183,7 +11183,7 @@
         <f t="shared" si="18"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC27" s="100" t="s">
+      <c r="AC27" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -11261,7 +11261,7 @@
         <f t="shared" si="18"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC28" s="100" t="s">
+      <c r="AC28" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -11323,7 +11323,7 @@
         <f t="shared" si="18"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC29" s="100" t="s">
+      <c r="AC29" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -11401,7 +11401,7 @@
         <f t="shared" si="18"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC30" s="100" t="s">
+      <c r="AC30" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -11463,7 +11463,7 @@
         <f t="shared" si="18"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC31" s="100" t="s">
+      <c r="AC31" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -11541,7 +11541,7 @@
         <f t="shared" si="18"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC32" s="100" t="s">
+      <c r="AC32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -11603,7 +11603,7 @@
         <f t="shared" si="18"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC33" s="100" t="s">
+      <c r="AC33" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -11681,7 +11681,7 @@
         <f t="shared" si="18"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC34" s="100" t="s">
+      <c r="AC34" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -11743,7 +11743,7 @@
         <f t="shared" si="18"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC35" s="100" t="s">
+      <c r="AC35" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -12468,28 +12468,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AC44:AC45"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -12500,18 +12490,28 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AC42:AC43"/>
+    <mergeCell ref="AC44:AC45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15110,8 +15110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17514,8 +17514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20371,7 +20371,7 @@
       <c r="W41" s="34"/>
       <c r="X41" s="34"/>
       <c r="Y41" s="35">
-        <f>V41</f>
+        <f>V41+X41</f>
         <v>0.308</v>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC2" s="100" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="4" t="s">
@@ -20625,7 +20625,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC3" s="100"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="4" t="s">
         <v>25</v>
       </c>
@@ -20695,7 +20695,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC4" s="100"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="4" t="s">
         <v>8</v>
       </c>
@@ -20765,7 +20765,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC5" s="100"/>
+      <c r="AC5" s="94"/>
       <c r="AD5" s="4" t="s">
         <v>26</v>
       </c>
@@ -20869,7 +20869,7 @@
         <f t="shared" ref="AA6:AA69" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z6)/4, 0))</f>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC6" s="100" t="s">
+      <c r="AC6" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="4" t="s">
@@ -20951,7 +20951,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC7" s="100"/>
+      <c r="AC7" s="94"/>
       <c r="AD7" s="4" t="s">
         <v>25</v>
       </c>
@@ -21015,7 +21015,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC8" s="100"/>
+      <c r="AC8" s="94"/>
       <c r="AD8" s="4" t="s">
         <v>8</v>
       </c>
@@ -21079,7 +21079,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="94"/>
       <c r="AD9" s="4" t="s">
         <v>26</v>
       </c>
@@ -21177,7 +21177,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC10" s="100" t="s">
+      <c r="AC10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="4" t="s">
@@ -21261,7 +21261,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC11" s="100" t="s">
+      <c r="AC11" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
@@ -21329,7 +21329,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC12" s="100" t="s">
+      <c r="AC12" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="4" t="s">
@@ -21397,7 +21397,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC13" s="100" t="s">
+      <c r="AC13" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="4" t="s">
@@ -21481,7 +21481,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC14" s="100" t="s">
+      <c r="AC14" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD14" s="4" t="s">
@@ -21565,7 +21565,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC15" s="100" t="s">
+      <c r="AC15" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD15" s="4" t="s">
@@ -21633,7 +21633,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC16" s="100" t="s">
+      <c r="AC16" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD16" s="4" t="s">
@@ -21701,7 +21701,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC17" s="100" t="s">
+      <c r="AC17" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="4" t="s">
@@ -21801,7 +21801,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC18" s="100" t="s">
+      <c r="AC18" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="4" t="s">
@@ -21885,7 +21885,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC19" s="100" t="s">
+      <c r="AC19" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="4" t="s">
@@ -21953,7 +21953,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC20" s="100" t="s">
+      <c r="AC20" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="4" t="s">
@@ -22021,7 +22021,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC21" s="100" t="s">
+      <c r="AC21" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="4" t="s">
@@ -22121,7 +22121,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC22" s="100" t="s">
+      <c r="AC22" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="4" t="s">
@@ -22205,7 +22205,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC23" s="100" t="s">
+      <c r="AC23" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="4" t="s">
@@ -22251,7 +22251,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC24" s="100" t="s">
+      <c r="AC24" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="4" t="s">
@@ -22297,7 +22297,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC25" s="100" t="s">
+      <c r="AC25" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="4" t="s">
@@ -22375,7 +22375,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC26" s="100" t="s">
+      <c r="AC26" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD26" s="4" t="s">
@@ -22437,7 +22437,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC27" s="100" t="s">
+      <c r="AC27" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="4" t="s">
@@ -22483,7 +22483,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC28" s="100" t="s">
+      <c r="AC28" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="4" t="s">
@@ -22529,7 +22529,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC29" s="100" t="s">
+      <c r="AC29" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="4" t="s">
@@ -22607,7 +22607,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC30" s="100" t="s">
+      <c r="AC30" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD30" s="4" t="s">
@@ -22669,7 +22669,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC31" s="100" t="s">
+      <c r="AC31" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD31" s="4" t="s">
@@ -22718,7 +22718,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC32" s="100" t="s">
+      <c r="AC32" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="4" t="s">
@@ -22764,7 +22764,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC33" s="100" t="s">
+      <c r="AC33" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="4" t="s">
@@ -22842,7 +22842,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC34" s="100" t="s">
+      <c r="AC34" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD34" s="4" t="s">
@@ -22904,7 +22904,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC35" s="100" t="s">
+      <c r="AC35" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD35" s="4" t="s">
@@ -22950,7 +22950,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC36" s="100" t="s">
+      <c r="AC36" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD36" s="4" t="s">
@@ -22999,7 +22999,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC37" s="100" t="s">
+      <c r="AC37" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="4" t="s">
@@ -23077,7 +23077,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC38" s="100" t="s">
+      <c r="AC38" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD38" s="4" t="s">
@@ -23139,7 +23139,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC39" s="100" t="s">
+      <c r="AC39" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="4" t="s">
@@ -23185,7 +23185,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC40" s="100" t="s">
+      <c r="AC40" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="4" t="s">
@@ -23231,7 +23231,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC41" s="100" t="s">
+      <c r="AC41" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD41" s="4" t="s">
@@ -23309,7 +23309,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC42" s="100" t="s">
+      <c r="AC42" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD42" s="4" t="s">
@@ -23371,7 +23371,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC43" s="100" t="s">
+      <c r="AC43" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD43" s="4" t="s">
@@ -23417,7 +23417,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC44" s="100" t="s">
+      <c r="AC44" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD44" s="4" t="s">
@@ -23463,7 +23463,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC45" s="100" t="s">
+      <c r="AC45" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD45" s="4" t="s">
@@ -23541,7 +23541,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC46" s="100" t="s">
+      <c r="AC46" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD46" s="4" t="s">
@@ -23603,7 +23603,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC47" s="100" t="s">
+      <c r="AC47" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD47" s="4" t="s">
@@ -23649,7 +23649,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC48" s="100" t="s">
+      <c r="AC48" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD48" s="4" t="s">
@@ -23695,7 +23695,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC49" s="100" t="s">
+      <c r="AC49" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="4" t="s">
@@ -23773,7 +23773,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC50" s="100" t="s">
+      <c r="AC50" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="4" t="s">
@@ -23835,7 +23835,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC51" s="100" t="s">
+      <c r="AC51" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD51" s="4" t="s">
@@ -23881,7 +23881,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC52" s="100" t="s">
+      <c r="AC52" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD52" s="4" t="s">
@@ -23927,7 +23927,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC53" s="100" t="s">
+      <c r="AC53" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="4" t="s">
@@ -24005,7 +24005,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC54" s="100" t="s">
+      <c r="AC54" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="4" t="s">
@@ -24067,7 +24067,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC55" s="100" t="s">
+      <c r="AC55" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD55" s="4" t="s">
@@ -24113,7 +24113,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC56" s="100" t="s">
+      <c r="AC56" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD56" s="4" t="s">
@@ -24159,7 +24159,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC57" s="100" t="s">
+      <c r="AC57" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD57" s="4" t="s">
@@ -24237,7 +24237,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC58" s="100" t="s">
+      <c r="AC58" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD58" s="4" t="s">
@@ -24299,7 +24299,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC59" s="100" t="s">
+      <c r="AC59" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD59" s="4" t="s">
@@ -24345,7 +24345,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC60" s="100" t="s">
+      <c r="AC60" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD60" s="4" t="s">
@@ -24391,7 +24391,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC61" s="100" t="s">
+      <c r="AC61" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD61" s="4" t="s">
@@ -24465,7 +24465,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC62" s="100" t="s">
+      <c r="AC62" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="4" t="s">
@@ -24527,7 +24527,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC63" s="100" t="s">
+      <c r="AC63" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD63" s="4" t="s">
@@ -24573,7 +24573,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC64" s="100" t="s">
+      <c r="AC64" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD64" s="4" t="s">
@@ -24619,7 +24619,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC65" s="100" t="s">
+      <c r="AC65" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD65" s="4" t="s">
@@ -24697,7 +24697,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC66" s="100" t="s">
+      <c r="AC66" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD66" s="4" t="s">
@@ -24759,7 +24759,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC67" s="100" t="s">
+      <c r="AC67" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD67" s="4" t="s">
@@ -24805,7 +24805,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC68" s="100" t="s">
+      <c r="AC68" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD68" s="4" t="s">
@@ -24851,7 +24851,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC69" s="100" t="s">
+      <c r="AC69" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD69" s="4" t="s">
@@ -24925,7 +24925,7 @@
         <f t="shared" ref="AA70:AA89" si="186">INDEX($Z$2:$Z$23,ROUND(ROW(Z70)/4, 0))</f>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC70" s="100" t="s">
+      <c r="AC70" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD70" s="4" t="s">
@@ -24987,7 +24987,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC71" s="100" t="s">
+      <c r="AC71" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD71" s="4" t="s">
@@ -25033,7 +25033,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC72" s="100" t="s">
+      <c r="AC72" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD72" s="4" t="s">
@@ -25079,7 +25079,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC73" s="100" t="s">
+      <c r="AC73" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD73" s="4" t="s">
@@ -25157,7 +25157,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC74" s="100" t="s">
+      <c r="AC74" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD74" s="4" t="s">
@@ -25219,7 +25219,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC75" s="100" t="s">
+      <c r="AC75" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD75" s="4" t="s">
@@ -25265,7 +25265,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC76" s="100" t="s">
+      <c r="AC76" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD76" s="4" t="s">
@@ -25311,7 +25311,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC77" s="100" t="s">
+      <c r="AC77" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD77" s="4" t="s">
@@ -25385,7 +25385,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC78" s="100" t="s">
+      <c r="AC78" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD78" s="4" t="s">
@@ -25447,7 +25447,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC79" s="100" t="s">
+      <c r="AC79" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD79" s="4" t="s">
@@ -25493,7 +25493,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC80" s="100" t="s">
+      <c r="AC80" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD80" s="4" t="s">
@@ -25539,7 +25539,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC81" s="100" t="s">
+      <c r="AC81" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD81" s="4" t="s">
@@ -25617,7 +25617,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC82" s="100" t="s">
+      <c r="AC82" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD82" s="4" t="s">
@@ -25679,7 +25679,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC83" s="100" t="s">
+      <c r="AC83" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD83" s="4" t="s">
@@ -25725,7 +25725,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC84" s="100" t="s">
+      <c r="AC84" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD84" s="4" t="s">
@@ -25771,7 +25771,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC85" s="100" t="s">
+      <c r="AC85" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD85" s="4" t="s">
@@ -25845,7 +25845,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC86" s="100" t="s">
+      <c r="AC86" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD86" s="4" t="s">
@@ -25907,7 +25907,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC87" s="100" t="s">
+      <c r="AC87" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD87" s="4" t="s">
@@ -25953,7 +25953,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC88" s="100" t="s">
+      <c r="AC88" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD88" s="4" t="s">
@@ -25999,7 +25999,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC89" s="100" t="s">
+      <c r="AC89" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD89" s="4" t="s">
@@ -26024,28 +26024,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AC70:AC73"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AC82:AC85"/>
-    <mergeCell ref="AC86:AC89"/>
-    <mergeCell ref="AC66:AC69"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -26056,18 +26046,28 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC66:AC69"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC70:AC73"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AC82:AC85"/>
+    <mergeCell ref="AC86:AC89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -26078,8 +26078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28892,7 +28892,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC2" s="100" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -28981,7 +28981,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC3" s="100"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -29052,7 +29052,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC4" s="100"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="64" t="s">
         <v>8</v>
       </c>
@@ -29123,7 +29123,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC5" s="100"/>
+      <c r="AC5" s="94"/>
       <c r="AD5" s="64" t="s">
         <v>26</v>
       </c>
@@ -29228,7 +29228,7 @@
         <f t="shared" ref="AA6:AA69" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z6)/4, 0))</f>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC6" s="100" t="s">
+      <c r="AC6" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="64" t="s">
@@ -29311,7 +29311,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC7" s="100"/>
+      <c r="AC7" s="94"/>
       <c r="AD7" s="64" t="s">
         <v>25</v>
       </c>
@@ -29376,7 +29376,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC8" s="100"/>
+      <c r="AC8" s="94"/>
       <c r="AD8" s="64" t="s">
         <v>8</v>
       </c>
@@ -29441,7 +29441,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="94"/>
       <c r="AD9" s="64" t="s">
         <v>26</v>
       </c>
@@ -29540,7 +29540,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC10" s="100" t="s">
+      <c r="AC10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="64" t="s">
@@ -29625,7 +29625,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC11" s="100" t="s">
+      <c r="AC11" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="64" t="s">
@@ -29694,7 +29694,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC12" s="100" t="s">
+      <c r="AC12" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -29763,7 +29763,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC13" s="100" t="s">
+      <c r="AC13" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -29864,7 +29864,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC14" s="100" t="s">
+      <c r="AC14" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -29949,7 +29949,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC15" s="100" t="s">
+      <c r="AC15" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -30018,7 +30018,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC16" s="100" t="s">
+      <c r="AC16" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -30087,7 +30087,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC17" s="100" t="s">
+      <c r="AC17" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -30188,7 +30188,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC18" s="100" t="s">
+      <c r="AC18" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -30273,7 +30273,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC19" s="100" t="s">
+      <c r="AC19" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -30342,7 +30342,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC20" s="100" t="s">
+      <c r="AC20" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -30411,7 +30411,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC21" s="100" t="s">
+      <c r="AC21" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -30511,7 +30511,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC22" s="100" t="s">
+      <c r="AC22" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -30595,7 +30595,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC23" s="100" t="s">
+      <c r="AC23" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -30641,7 +30641,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC24" s="100" t="s">
+      <c r="AC24" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -30687,7 +30687,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC25" s="100" t="s">
+      <c r="AC25" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -30765,7 +30765,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC26" s="100" t="s">
+      <c r="AC26" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -30827,7 +30827,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC27" s="100" t="s">
+      <c r="AC27" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -30873,7 +30873,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC28" s="100" t="s">
+      <c r="AC28" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -30919,7 +30919,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC29" s="100" t="s">
+      <c r="AC29" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -30997,7 +30997,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC30" s="100" t="s">
+      <c r="AC30" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -31059,7 +31059,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC31" s="100" t="s">
+      <c r="AC31" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -31105,7 +31105,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC32" s="100" t="s">
+      <c r="AC32" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -31151,7 +31151,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC33" s="100" t="s">
+      <c r="AC33" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -31229,7 +31229,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC34" s="100" t="s">
+      <c r="AC34" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -31291,7 +31291,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC35" s="100" t="s">
+      <c r="AC35" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -31337,7 +31337,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC36" s="100" t="s">
+      <c r="AC36" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -31383,7 +31383,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC37" s="100" t="s">
+      <c r="AC37" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -31461,7 +31461,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC38" s="100" t="s">
+      <c r="AC38" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -31523,7 +31523,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC39" s="100" t="s">
+      <c r="AC39" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -31569,7 +31569,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC40" s="100" t="s">
+      <c r="AC40" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -31615,7 +31615,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC41" s="100" t="s">
+      <c r="AC41" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -31693,7 +31693,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC42" s="100" t="s">
+      <c r="AC42" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -31755,7 +31755,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC43" s="100" t="s">
+      <c r="AC43" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -31801,7 +31801,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC44" s="100" t="s">
+      <c r="AC44" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -31847,7 +31847,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC45" s="100" t="s">
+      <c r="AC45" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -31925,7 +31925,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC46" s="100" t="s">
+      <c r="AC46" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -31987,7 +31987,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC47" s="100" t="s">
+      <c r="AC47" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -32033,7 +32033,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC48" s="100" t="s">
+      <c r="AC48" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -32079,7 +32079,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC49" s="100" t="s">
+      <c r="AC49" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -32157,7 +32157,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC50" s="100" t="s">
+      <c r="AC50" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -32219,7 +32219,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC51" s="100" t="s">
+      <c r="AC51" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -32265,7 +32265,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC52" s="100" t="s">
+      <c r="AC52" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -32311,7 +32311,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC53" s="100" t="s">
+      <c r="AC53" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -32389,7 +32389,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC54" s="100" t="s">
+      <c r="AC54" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -32451,7 +32451,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC55" s="100" t="s">
+      <c r="AC55" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -32497,7 +32497,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC56" s="100" t="s">
+      <c r="AC56" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -32543,7 +32543,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC57" s="100" t="s">
+      <c r="AC57" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -32621,7 +32621,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC58" s="100" t="s">
+      <c r="AC58" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -32683,7 +32683,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC59" s="100" t="s">
+      <c r="AC59" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -32729,7 +32729,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC60" s="100" t="s">
+      <c r="AC60" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -32775,7 +32775,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC61" s="100" t="s">
+      <c r="AC61" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -32853,7 +32853,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC62" s="100" t="s">
+      <c r="AC62" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -32915,7 +32915,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC63" s="100" t="s">
+      <c r="AC63" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -32961,7 +32961,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC64" s="100" t="s">
+      <c r="AC64" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -33007,7 +33007,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC65" s="100" t="s">
+      <c r="AC65" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -33085,7 +33085,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC66" s="100" t="s">
+      <c r="AC66" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -33147,7 +33147,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC67" s="100" t="s">
+      <c r="AC67" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -33193,7 +33193,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC68" s="100" t="s">
+      <c r="AC68" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -33239,7 +33239,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC69" s="100" t="s">
+      <c r="AC69" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -33317,7 +33317,7 @@
         <f t="shared" ref="AA70:AA89" si="192">INDEX($Z$2:$Z$23,ROUND(ROW(Z70)/4, 0))</f>
         <v>-271.78683529</v>
       </c>
-      <c r="AC70" s="100" t="s">
+      <c r="AC70" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -33379,7 +33379,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC71" s="100" t="s">
+      <c r="AC71" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -33425,7 +33425,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC72" s="100" t="s">
+      <c r="AC72" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -33471,7 +33471,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC73" s="100" t="s">
+      <c r="AC73" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -33549,7 +33549,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC74" s="100" t="s">
+      <c r="AC74" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -33611,7 +33611,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC75" s="100" t="s">
+      <c r="AC75" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -33657,7 +33657,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC76" s="100" t="s">
+      <c r="AC76" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -33703,7 +33703,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC77" s="100" t="s">
+      <c r="AC77" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -33781,7 +33781,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC78" s="100" t="s">
+      <c r="AC78" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -33843,7 +33843,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC79" s="100" t="s">
+      <c r="AC79" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -33889,7 +33889,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC80" s="100" t="s">
+      <c r="AC80" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -33935,7 +33935,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC81" s="100" t="s">
+      <c r="AC81" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -34013,7 +34013,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC82" s="100" t="s">
+      <c r="AC82" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -34075,7 +34075,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC83" s="100" t="s">
+      <c r="AC83" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -34121,7 +34121,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC84" s="100" t="s">
+      <c r="AC84" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -34167,7 +34167,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC85" s="100" t="s">
+      <c r="AC85" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -34245,7 +34245,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC86" s="100" t="s">
+      <c r="AC86" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -34307,7 +34307,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC87" s="100" t="s">
+      <c r="AC87" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -34353,7 +34353,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC88" s="100" t="s">
+      <c r="AC88" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -34399,7 +34399,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC89" s="100" t="s">
+      <c r="AC89" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -34424,28 +34424,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AC70:AC73"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AC82:AC85"/>
-    <mergeCell ref="AC86:AC89"/>
-    <mergeCell ref="AC66:AC69"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -34456,18 +34446,28 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC66:AC69"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC70:AC73"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AC82:AC85"/>
+    <mergeCell ref="AC86:AC89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -34478,8 +34478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37292,7 +37292,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC2" s="100" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -37381,7 +37381,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC3" s="100"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -37452,7 +37452,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC4" s="100"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="64" t="s">
         <v>8</v>
       </c>
@@ -37523,7 +37523,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC5" s="100"/>
+      <c r="AC5" s="94"/>
       <c r="AD5" s="64" t="s">
         <v>26</v>
       </c>
@@ -37594,7 +37594,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC6" s="100"/>
+      <c r="AC6" s="94"/>
       <c r="AD6" s="64" t="s">
         <v>28</v>
       </c>
@@ -37693,7 +37693,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC7" s="100" t="s">
+      <c r="AC7" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -37776,7 +37776,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC8" s="100"/>
+      <c r="AC8" s="94"/>
       <c r="AD8" s="64" t="s">
         <v>25</v>
       </c>
@@ -37841,7 +37841,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="94"/>
       <c r="AD9" s="64" t="s">
         <v>8</v>
       </c>
@@ -37906,7 +37906,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC10" s="100"/>
+      <c r="AC10" s="94"/>
       <c r="AD10" s="64" t="s">
         <v>26</v>
       </c>
@@ -37971,7 +37971,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC11" s="100"/>
+      <c r="AC11" s="94"/>
       <c r="AD11" s="64" t="s">
         <v>28</v>
       </c>
@@ -38070,7 +38070,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC12" s="100" t="s">
+      <c r="AC12" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -38155,7 +38155,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC13" s="100" t="s">
+      <c r="AC13" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -38224,7 +38224,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC14" s="100" t="s">
+      <c r="AC14" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -38293,7 +38293,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC15" s="100" t="s">
+      <c r="AC15" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -38362,7 +38362,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC16" s="100" t="s">
+      <c r="AC16" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -38463,7 +38463,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC17" s="100" t="s">
+      <c r="AC17" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -38548,7 +38548,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC18" s="100" t="s">
+      <c r="AC18" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -38617,7 +38617,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC19" s="100" t="s">
+      <c r="AC19" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -38686,7 +38686,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC20" s="100" t="s">
+      <c r="AC20" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -38755,7 +38755,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC21" s="100" t="s">
+      <c r="AC21" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -38856,7 +38856,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC22" s="100" t="s">
+      <c r="AC22" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -38940,7 +38940,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC23" s="100" t="s">
+      <c r="AC23" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -38986,7 +38986,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC24" s="100" t="s">
+      <c r="AC24" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -39032,7 +39032,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC25" s="100" t="s">
+      <c r="AC25" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -39078,7 +39078,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC26" s="100" t="s">
+      <c r="AC26" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -39156,7 +39156,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC27" s="100" t="s">
+      <c r="AC27" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -39218,7 +39218,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC28" s="100" t="s">
+      <c r="AC28" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -39264,7 +39264,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC29" s="100" t="s">
+      <c r="AC29" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -39310,7 +39310,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC30" s="100" t="s">
+      <c r="AC30" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -39356,7 +39356,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC31" s="100" t="s">
+      <c r="AC31" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -39434,7 +39434,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC32" s="100" t="s">
+      <c r="AC32" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -39496,7 +39496,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC33" s="100" t="s">
+      <c r="AC33" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -39542,7 +39542,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC34" s="100" t="s">
+      <c r="AC34" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -39588,7 +39588,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC35" s="100" t="s">
+      <c r="AC35" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -39634,7 +39634,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC36" s="100" t="s">
+      <c r="AC36" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -39712,7 +39712,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC37" s="100" t="s">
+      <c r="AC37" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -39774,7 +39774,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC38" s="100" t="s">
+      <c r="AC38" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -39820,7 +39820,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC39" s="100" t="s">
+      <c r="AC39" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -39866,7 +39866,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC40" s="100" t="s">
+      <c r="AC40" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -39912,7 +39912,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC41" s="100" t="s">
+      <c r="AC41" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -39990,7 +39990,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC42" s="100" t="s">
+      <c r="AC42" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -40052,7 +40052,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC43" s="100" t="s">
+      <c r="AC43" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -40098,7 +40098,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC44" s="100" t="s">
+      <c r="AC44" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -40144,7 +40144,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC45" s="100" t="s">
+      <c r="AC45" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -40190,7 +40190,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC46" s="100" t="s">
+      <c r="AC46" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -40268,7 +40268,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC47" s="100" t="s">
+      <c r="AC47" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -40330,7 +40330,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC48" s="100" t="s">
+      <c r="AC48" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -40376,7 +40376,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC49" s="100" t="s">
+      <c r="AC49" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -40422,7 +40422,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC50" s="100" t="s">
+      <c r="AC50" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -40468,7 +40468,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC51" s="100" t="s">
+      <c r="AC51" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -40546,7 +40546,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC52" s="100" t="s">
+      <c r="AC52" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -40608,7 +40608,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC53" s="100" t="s">
+      <c r="AC53" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -40654,7 +40654,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC54" s="100" t="s">
+      <c r="AC54" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -40700,7 +40700,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC55" s="100" t="s">
+      <c r="AC55" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -40746,7 +40746,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC56" s="100" t="s">
+      <c r="AC56" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -40824,7 +40824,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC57" s="100" t="s">
+      <c r="AC57" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -40886,7 +40886,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC58" s="100" t="s">
+      <c r="AC58" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -40932,7 +40932,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC59" s="100" t="s">
+      <c r="AC59" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -40978,7 +40978,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC60" s="100" t="s">
+      <c r="AC60" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -41024,7 +41024,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC61" s="100" t="s">
+      <c r="AC61" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -41102,7 +41102,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC62" s="100" t="s">
+      <c r="AC62" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -41164,7 +41164,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC63" s="100" t="s">
+      <c r="AC63" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -41210,7 +41210,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC64" s="100" t="s">
+      <c r="AC64" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -41256,7 +41256,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC65" s="100" t="s">
+      <c r="AC65" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -41302,7 +41302,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC66" s="100" t="s">
+      <c r="AC66" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -41380,7 +41380,7 @@
         <f t="shared" ref="AA67:AA111" si="154">INDEX($Z$2:$Z$23,ROUND(ROW(Z68)/5, 0))</f>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC67" s="100" t="s">
+      <c r="AC67" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -41442,7 +41442,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC68" s="100" t="s">
+      <c r="AC68" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -41488,7 +41488,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC69" s="100" t="s">
+      <c r="AC69" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -41534,7 +41534,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC70" s="100" t="s">
+      <c r="AC70" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -41580,7 +41580,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC71" s="100" t="s">
+      <c r="AC71" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -41658,7 +41658,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC72" s="100" t="s">
+      <c r="AC72" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -41720,7 +41720,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC73" s="100" t="s">
+      <c r="AC73" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -41766,7 +41766,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC74" s="100" t="s">
+      <c r="AC74" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -41812,7 +41812,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC75" s="100" t="s">
+      <c r="AC75" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -41858,7 +41858,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC76" s="100" t="s">
+      <c r="AC76" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -41936,7 +41936,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC77" s="100" t="s">
+      <c r="AC77" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -41998,7 +41998,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC78" s="100" t="s">
+      <c r="AC78" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -42044,7 +42044,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC79" s="100" t="s">
+      <c r="AC79" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -42090,7 +42090,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC80" s="100" t="s">
+      <c r="AC80" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -42136,7 +42136,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC81" s="100" t="s">
+      <c r="AC81" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -42214,7 +42214,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC82" s="100" t="s">
+      <c r="AC82" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -42276,7 +42276,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC83" s="100" t="s">
+      <c r="AC83" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -42322,7 +42322,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC84" s="100" t="s">
+      <c r="AC84" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -42368,7 +42368,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC85" s="100" t="s">
+      <c r="AC85" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -42414,7 +42414,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC86" s="100" t="s">
+      <c r="AC86" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -42492,7 +42492,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC87" s="100" t="s">
+      <c r="AC87" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -42554,7 +42554,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC88" s="100" t="s">
+      <c r="AC88" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -42600,7 +42600,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC89" s="100" t="s">
+      <c r="AC89" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -42646,7 +42646,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC90" s="100" t="s">
+      <c r="AC90" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD90" s="64" t="s">
@@ -42692,7 +42692,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC91" s="100" t="s">
+      <c r="AC91" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD91" s="64" t="s">
@@ -42770,7 +42770,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC92" s="100" t="s">
+      <c r="AC92" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD92" s="64" t="s">
@@ -42832,7 +42832,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC93" s="100" t="s">
+      <c r="AC93" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD93" s="64" t="s">
@@ -42878,7 +42878,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC94" s="100" t="s">
+      <c r="AC94" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD94" s="64" t="s">
@@ -42924,7 +42924,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC95" s="100" t="s">
+      <c r="AC95" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD95" s="64" t="s">
@@ -42970,7 +42970,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC96" s="100" t="s">
+      <c r="AC96" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD96" s="64" t="s">
@@ -43048,7 +43048,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC97" s="100" t="s">
+      <c r="AC97" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD97" s="64" t="s">
@@ -43110,7 +43110,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC98" s="100" t="s">
+      <c r="AC98" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD98" s="64" t="s">
@@ -43156,7 +43156,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC99" s="100" t="s">
+      <c r="AC99" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD99" s="64" t="s">
@@ -43202,7 +43202,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC100" s="100" t="s">
+      <c r="AC100" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD100" s="64" t="s">
@@ -43248,7 +43248,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC101" s="100" t="s">
+      <c r="AC101" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD101" s="64" t="s">
@@ -43326,7 +43326,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC102" s="100" t="s">
+      <c r="AC102" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD102" s="64" t="s">
@@ -43388,7 +43388,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC103" s="100" t="s">
+      <c r="AC103" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD103" s="64" t="s">
@@ -43434,7 +43434,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC104" s="100" t="s">
+      <c r="AC104" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD104" s="64" t="s">
@@ -43480,7 +43480,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC105" s="100" t="s">
+      <c r="AC105" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD105" s="64" t="s">
@@ -43526,7 +43526,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC106" s="100" t="s">
+      <c r="AC106" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD106" s="64" t="s">
@@ -43604,7 +43604,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC107" s="100" t="s">
+      <c r="AC107" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD107" s="64" t="s">
@@ -43666,7 +43666,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC108" s="100" t="s">
+      <c r="AC108" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD108" s="64" t="s">
@@ -43712,7 +43712,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC109" s="100" t="s">
+      <c r="AC109" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD109" s="64" t="s">
@@ -43758,7 +43758,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC110" s="100" t="s">
+      <c r="AC110" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD110" s="64" t="s">
@@ -43804,7 +43804,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC111" s="100" t="s">
+      <c r="AC111" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD111" s="64" t="s">
@@ -43829,28 +43829,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AC87:AC91"/>
-    <mergeCell ref="AC92:AC96"/>
-    <mergeCell ref="AC97:AC101"/>
-    <mergeCell ref="AC102:AC106"/>
-    <mergeCell ref="AC107:AC111"/>
-    <mergeCell ref="AC82:AC86"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="A77:A81"/>
@@ -43861,18 +43851,28 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC82:AC86"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC87:AC91"/>
+    <mergeCell ref="AC92:AC96"/>
+    <mergeCell ref="AC97:AC101"/>
+    <mergeCell ref="AC102:AC106"/>
+    <mergeCell ref="AC107:AC111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -43883,8 +43883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46628,7 +46628,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC2" s="100" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -46717,7 +46717,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC3" s="100"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -46788,7 +46788,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC4" s="100"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="64" t="s">
         <v>32</v>
       </c>
@@ -46859,7 +46859,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC5" s="100"/>
+      <c r="AC5" s="94"/>
       <c r="AD5" s="64" t="s">
         <v>8</v>
       </c>
@@ -46930,7 +46930,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC6" s="100"/>
+      <c r="AC6" s="94"/>
       <c r="AD6" s="64" t="s">
         <v>26</v>
       </c>
@@ -47029,7 +47029,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC7" s="100" t="s">
+      <c r="AC7" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -47112,7 +47112,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC8" s="100"/>
+      <c r="AC8" s="94"/>
       <c r="AD8" s="64" t="s">
         <v>25</v>
       </c>
@@ -47177,7 +47177,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="94"/>
       <c r="AD9" s="64" t="s">
         <v>32</v>
       </c>
@@ -47242,7 +47242,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC10" s="100"/>
+      <c r="AC10" s="94"/>
       <c r="AD10" s="64" t="s">
         <v>8</v>
       </c>
@@ -47307,7 +47307,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC11" s="100"/>
+      <c r="AC11" s="94"/>
       <c r="AD11" s="64" t="s">
         <v>26</v>
       </c>
@@ -47406,7 +47406,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC12" s="100" t="s">
+      <c r="AC12" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -47491,7 +47491,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC13" s="100" t="s">
+      <c r="AC13" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -47560,7 +47560,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC14" s="100" t="s">
+      <c r="AC14" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -47629,7 +47629,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC15" s="100" t="s">
+      <c r="AC15" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -47698,7 +47698,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC16" s="100" t="s">
+      <c r="AC16" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -47722,7 +47722,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="109" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -47799,7 +47799,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC17" s="109" t="s">
+      <c r="AC17" s="106" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -47823,7 +47823,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -47882,7 +47882,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC18" s="110"/>
+      <c r="AC18" s="107"/>
       <c r="AD18" s="64" t="s">
         <v>25</v>
       </c>
@@ -47904,7 +47904,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="107"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="60" t="s">
         <v>32</v>
       </c>
@@ -47947,7 +47947,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC19" s="110"/>
+      <c r="AC19" s="107"/>
       <c r="AD19" s="64" t="s">
         <v>32</v>
       </c>
@@ -47969,7 +47969,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
@@ -48012,7 +48012,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC20" s="110"/>
+      <c r="AC20" s="107"/>
       <c r="AD20" s="64" t="s">
         <v>8</v>
       </c>
@@ -48034,7 +48034,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="108"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="60" t="s">
         <v>26</v>
       </c>
@@ -48077,7 +48077,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC21" s="111"/>
+      <c r="AC21" s="108"/>
       <c r="AD21" s="64" t="s">
         <v>26</v>
       </c>
@@ -48176,7 +48176,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC22" s="100" t="s">
+      <c r="AC22" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -48260,7 +48260,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC23" s="100" t="s">
+      <c r="AC23" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -48306,7 +48306,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC24" s="100" t="s">
+      <c r="AC24" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -48352,7 +48352,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC25" s="100" t="s">
+      <c r="AC25" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -48398,7 +48398,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC26" s="100" t="s">
+      <c r="AC26" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -48476,7 +48476,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC27" s="100" t="s">
+      <c r="AC27" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -48538,7 +48538,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC28" s="100" t="s">
+      <c r="AC28" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -48584,7 +48584,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC29" s="100" t="s">
+      <c r="AC29" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -48630,7 +48630,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC30" s="100" t="s">
+      <c r="AC30" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -48676,7 +48676,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC31" s="100" t="s">
+      <c r="AC31" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -48754,7 +48754,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC32" s="100" t="s">
+      <c r="AC32" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -48816,7 +48816,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC33" s="100" t="s">
+      <c r="AC33" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -48862,7 +48862,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC34" s="100" t="s">
+      <c r="AC34" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -48908,7 +48908,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC35" s="100" t="s">
+      <c r="AC35" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -48954,7 +48954,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC36" s="100" t="s">
+      <c r="AC36" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -49032,7 +49032,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC37" s="100" t="s">
+      <c r="AC37" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -49094,7 +49094,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC38" s="100" t="s">
+      <c r="AC38" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -49140,7 +49140,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC39" s="100" t="s">
+      <c r="AC39" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -49186,7 +49186,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC40" s="100" t="s">
+      <c r="AC40" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -49232,7 +49232,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC41" s="100" t="s">
+      <c r="AC41" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -49310,7 +49310,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC42" s="100" t="s">
+      <c r="AC42" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -49372,7 +49372,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC43" s="100" t="s">
+      <c r="AC43" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -49418,7 +49418,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC44" s="100" t="s">
+      <c r="AC44" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -49464,7 +49464,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC45" s="100" t="s">
+      <c r="AC45" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -49510,7 +49510,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC46" s="100" t="s">
+      <c r="AC46" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -49588,7 +49588,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC47" s="100" t="s">
+      <c r="AC47" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -49650,7 +49650,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC48" s="100" t="s">
+      <c r="AC48" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -49696,7 +49696,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC49" s="100" t="s">
+      <c r="AC49" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -49742,7 +49742,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC50" s="100" t="s">
+      <c r="AC50" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -49788,7 +49788,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC51" s="100" t="s">
+      <c r="AC51" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -49866,7 +49866,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC52" s="100" t="s">
+      <c r="AC52" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -49928,7 +49928,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC53" s="100" t="s">
+      <c r="AC53" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -49974,7 +49974,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC54" s="100" t="s">
+      <c r="AC54" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -50020,7 +50020,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC55" s="100" t="s">
+      <c r="AC55" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -50066,7 +50066,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC56" s="100" t="s">
+      <c r="AC56" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -50144,7 +50144,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC57" s="100" t="s">
+      <c r="AC57" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -50206,7 +50206,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC58" s="100" t="s">
+      <c r="AC58" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -50252,7 +50252,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC59" s="100" t="s">
+      <c r="AC59" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -50298,7 +50298,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC60" s="100" t="s">
+      <c r="AC60" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -50344,7 +50344,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC61" s="100" t="s">
+      <c r="AC61" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -50422,7 +50422,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC62" s="100" t="s">
+      <c r="AC62" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -50484,7 +50484,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC63" s="100" t="s">
+      <c r="AC63" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -50530,7 +50530,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC64" s="100" t="s">
+      <c r="AC64" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -50576,7 +50576,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC65" s="100" t="s">
+      <c r="AC65" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -50622,7 +50622,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC66" s="100" t="s">
+      <c r="AC66" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -50700,7 +50700,7 @@
         <f t="shared" ref="AA67:AA111" si="150">INDEX($Z$2:$Z$23,ROUND(ROW(Z68)/5, 0))</f>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC67" s="100" t="s">
+      <c r="AC67" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -50762,7 +50762,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC68" s="100" t="s">
+      <c r="AC68" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -50808,7 +50808,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC69" s="100" t="s">
+      <c r="AC69" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -50854,7 +50854,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC70" s="100" t="s">
+      <c r="AC70" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -50900,7 +50900,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC71" s="100" t="s">
+      <c r="AC71" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -50978,7 +50978,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC72" s="100" t="s">
+      <c r="AC72" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -51040,7 +51040,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC73" s="100" t="s">
+      <c r="AC73" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -51086,7 +51086,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC74" s="100" t="s">
+      <c r="AC74" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -51132,7 +51132,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC75" s="100" t="s">
+      <c r="AC75" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -51178,7 +51178,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC76" s="100" t="s">
+      <c r="AC76" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -51256,7 +51256,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC77" s="100" t="s">
+      <c r="AC77" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -51318,7 +51318,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC78" s="100" t="s">
+      <c r="AC78" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -51364,7 +51364,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC79" s="100" t="s">
+      <c r="AC79" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -51410,7 +51410,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC80" s="100" t="s">
+      <c r="AC80" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -51456,7 +51456,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC81" s="100" t="s">
+      <c r="AC81" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -51534,7 +51534,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC82" s="100" t="s">
+      <c r="AC82" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -51596,7 +51596,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC83" s="100" t="s">
+      <c r="AC83" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -51642,7 +51642,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC84" s="100" t="s">
+      <c r="AC84" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -51688,7 +51688,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC85" s="100" t="s">
+      <c r="AC85" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -51734,7 +51734,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC86" s="100" t="s">
+      <c r="AC86" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -51812,7 +51812,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC87" s="100" t="s">
+      <c r="AC87" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -51874,7 +51874,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC88" s="100" t="s">
+      <c r="AC88" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -51920,7 +51920,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC89" s="100" t="s">
+      <c r="AC89" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -51966,7 +51966,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC90" s="100" t="s">
+      <c r="AC90" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD90" s="64" t="s">
@@ -52012,7 +52012,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC91" s="100" t="s">
+      <c r="AC91" s="94" t="s">
         <v>88</v>
       </c>
       <c r="AD91" s="64" t="s">
@@ -52090,7 +52090,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC92" s="100" t="s">
+      <c r="AC92" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD92" s="64" t="s">
@@ -52152,7 +52152,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC93" s="100" t="s">
+      <c r="AC93" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD93" s="64" t="s">
@@ -52198,7 +52198,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC94" s="100" t="s">
+      <c r="AC94" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD94" s="64" t="s">
@@ -52244,7 +52244,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC95" s="100" t="s">
+      <c r="AC95" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD95" s="64" t="s">
@@ -52290,7 +52290,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC96" s="100" t="s">
+      <c r="AC96" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD96" s="64" t="s">
@@ -52368,7 +52368,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC97" s="100" t="s">
+      <c r="AC97" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD97" s="64" t="s">
@@ -52430,7 +52430,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC98" s="100" t="s">
+      <c r="AC98" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD98" s="64" t="s">
@@ -52476,7 +52476,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC99" s="100" t="s">
+      <c r="AC99" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD99" s="64" t="s">
@@ -52522,7 +52522,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC100" s="100" t="s">
+      <c r="AC100" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD100" s="64" t="s">
@@ -52568,7 +52568,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC101" s="100" t="s">
+      <c r="AC101" s="94" t="s">
         <v>90</v>
       </c>
       <c r="AD101" s="64" t="s">
@@ -52646,7 +52646,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC102" s="100" t="s">
+      <c r="AC102" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD102" s="64" t="s">
@@ -52708,7 +52708,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC103" s="100" t="s">
+      <c r="AC103" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD103" s="64" t="s">
@@ -52754,7 +52754,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC104" s="100" t="s">
+      <c r="AC104" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD104" s="64" t="s">
@@ -52800,7 +52800,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC105" s="100" t="s">
+      <c r="AC105" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD105" s="64" t="s">
@@ -52846,7 +52846,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC106" s="100" t="s">
+      <c r="AC106" s="94" t="s">
         <v>91</v>
       </c>
       <c r="AD106" s="64" t="s">
@@ -52924,7 +52924,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC107" s="100" t="s">
+      <c r="AC107" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD107" s="64" t="s">
@@ -52986,7 +52986,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC108" s="100" t="s">
+      <c r="AC108" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD108" s="64" t="s">
@@ -53032,7 +53032,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC109" s="100" t="s">
+      <c r="AC109" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD109" s="64" t="s">
@@ -53078,7 +53078,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC110" s="100" t="s">
+      <c r="AC110" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD110" s="64" t="s">
@@ -53124,7 +53124,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC111" s="100" t="s">
+      <c r="AC111" s="94" t="s">
         <v>92</v>
       </c>
       <c r="AD111" s="64" t="s">
@@ -53149,28 +53149,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AC87:AC91"/>
-    <mergeCell ref="AC92:AC96"/>
-    <mergeCell ref="AC97:AC101"/>
-    <mergeCell ref="AC102:AC106"/>
-    <mergeCell ref="AC107:AC111"/>
-    <mergeCell ref="AC82:AC86"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="A77:A81"/>
@@ -53181,18 +53171,28 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC82:AC86"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC87:AC91"/>
+    <mergeCell ref="AC92:AC96"/>
+    <mergeCell ref="AC97:AC101"/>
+    <mergeCell ref="AC102:AC106"/>
+    <mergeCell ref="AC107:AC111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/myproject/version3/sites.xlsx
+++ b/plotpackage/myproject/version3/sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="12" r:id="rId1"/>
@@ -973,13 +973,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -991,10 +994,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1012,6 +1012,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,15 +1029,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -1474,7 +1474,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC2" s="93" t="s">
+      <c r="AC2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="60" t="s">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="60" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1563,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC3" s="93"/>
+      <c r="AC3" s="94"/>
       <c r="AD3" s="60" t="s">
         <v>25</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="60" t="s">
         <v>84</v>
       </c>
@@ -1634,7 +1634,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC4" s="93"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="60" t="s">
         <v>84</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -1739,7 +1739,7 @@
         <f t="shared" ref="AA5:AA34" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/3, 0))</f>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC5" s="93" t="s">
+      <c r="AC5" s="94" t="s">
         <v>9</v>
       </c>
       <c r="AD5" s="60" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="93"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="60" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1828,7 @@
         <f t="shared" si="18"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC6" s="93"/>
+      <c r="AC6" s="94"/>
       <c r="AD6" s="60" t="s">
         <v>25</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
@@ -1893,7 +1893,7 @@
         <f t="shared" si="18"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC7" s="93"/>
+      <c r="AC7" s="94"/>
       <c r="AD7" s="60" t="s">
         <v>84</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -1992,7 +1992,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC8" s="93" t="s">
+      <c r="AC8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD8" s="60" t="s">
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -2077,7 +2077,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC9" s="93" t="s">
+      <c r="AC9" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD9" s="60" t="s">
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="60" t="s">
@@ -2146,7 +2146,7 @@
         <f t="shared" si="18"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC10" s="93" t="s">
+      <c r="AC10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="60" t="s">
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="60" t="s">
@@ -2247,7 +2247,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC11" s="93" t="s">
+      <c r="AC11" s="94" t="s">
         <v>87</v>
       </c>
       <c r="AD11" s="60" t="s">
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="60" t="s">
@@ -2332,7 +2332,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC12" s="93" t="s">
+      <c r="AC12" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD12" s="60" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="60" t="s">
@@ -2401,7 +2401,7 @@
         <f t="shared" si="18"/>
         <v>-289.56125059999999</v>
       </c>
-      <c r="AC13" s="93" t="s">
+      <c r="AC13" s="94" t="s">
         <v>11</v>
       </c>
       <c r="AD13" s="60" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="60" t="s">
@@ -2502,7 +2502,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC14" s="96" t="s">
+      <c r="AC14" s="97" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="60" t="s">
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="60" t="s">
@@ -2587,7 +2587,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC15" s="97"/>
+      <c r="AC15" s="98"/>
       <c r="AD15" s="60" t="s">
         <v>25</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="60" t="s">
@@ -2654,7 +2654,7 @@
         <f t="shared" si="18"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC16" s="98"/>
+      <c r="AC16" s="99"/>
       <c r="AD16" s="60" t="s">
         <v>84</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -2753,7 +2753,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC17" s="93" t="s">
+      <c r="AC17" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD17" s="60" t="s">
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
@@ -2838,7 +2838,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC18" s="93" t="s">
+      <c r="AC18" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="60" t="s">
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -2907,7 +2907,7 @@
         <f t="shared" si="18"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC19" s="93" t="s">
+      <c r="AC19" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="60" t="s">
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="60" t="s">
@@ -3008,7 +3008,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC20" s="93" t="s">
+      <c r="AC20" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD20" s="60" t="s">
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -3092,7 +3092,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC21" s="93" t="s">
+      <c r="AC21" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD21" s="60" t="s">
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="60" t="s">
@@ -3160,7 +3160,7 @@
         <f t="shared" si="18"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC22" s="93" t="s">
+      <c r="AC22" s="94" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="60" t="s">
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -3260,7 +3260,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC23" s="93" t="s">
+      <c r="AC23" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD23" s="60" t="s">
@@ -3284,7 +3284,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -3322,7 +3322,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC24" s="93" t="s">
+      <c r="AC24" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD24" s="60" t="s">
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -3368,7 +3368,7 @@
         <f t="shared" si="18"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC25" s="93" t="s">
+      <c r="AC25" s="94" t="s">
         <v>14</v>
       </c>
       <c r="AD25" s="60" t="s">
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="60" t="s">
@@ -3446,7 +3446,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC26" s="93" t="s">
+      <c r="AC26" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD26" s="60" t="s">
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="60" t="s">
@@ -3508,7 +3508,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC27" s="93" t="s">
+      <c r="AC27" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD27" s="60" t="s">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="60" t="s">
@@ -3554,7 +3554,7 @@
         <f t="shared" si="18"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC28" s="93" t="s">
+      <c r="AC28" s="94" t="s">
         <v>15</v>
       </c>
       <c r="AD28" s="60" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="60" t="s">
@@ -3632,7 +3632,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC29" s="93" t="s">
+      <c r="AC29" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD29" s="60" t="s">
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="60" t="s">
@@ -3694,7 +3694,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC30" s="93" t="s">
+      <c r="AC30" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD30" s="60" t="s">
@@ -3718,7 +3718,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="60" t="s">
@@ -3740,7 +3740,7 @@
         <f t="shared" si="18"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC31" s="93" t="s">
+      <c r="AC31" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AD31" s="60" t="s">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="60" t="s">
@@ -3818,7 +3818,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC32" s="93" t="s">
+      <c r="AC32" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD32" s="60" t="s">
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="60" t="s">
@@ -3880,7 +3880,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC33" s="93" t="s">
+      <c r="AC33" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD33" s="60" t="s">
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="60" t="s">
@@ -3926,7 +3926,7 @@
         <f t="shared" si="18"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC34" s="93" t="s">
+      <c r="AC34" s="94" t="s">
         <v>17</v>
       </c>
       <c r="AD34" s="60" t="s">
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="60" t="s">
@@ -4004,7 +4004,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z35)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC35" s="93" t="s">
+      <c r="AC35" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD35" s="60" t="s">
@@ -4028,7 +4028,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="60" t="s">
@@ -4066,7 +4066,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z36)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC36" s="93" t="s">
+      <c r="AC36" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD36" s="60" t="s">
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="60" t="s">
@@ -4112,7 +4112,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z37)/3, 0))</f>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC37" s="93" t="s">
+      <c r="AC37" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AD37" s="60" t="s">
@@ -4136,7 +4136,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="60" t="s">
@@ -4190,7 +4190,7 @@
         <f t="shared" ref="AA38:AA67" si="139">INDEX($Z$2:$Z$23,ROUND(ROW(Z38)/3, 0))</f>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC38" s="93" t="s">
+      <c r="AC38" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD38" s="60" t="s">
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="60" t="s">
@@ -4252,7 +4252,7 @@
         <f t="shared" si="139"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC39" s="93" t="s">
+      <c r="AC39" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD39" s="60" t="s">
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="60" t="s">
@@ -4298,7 +4298,7 @@
         <f t="shared" si="139"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC40" s="93" t="s">
+      <c r="AC40" s="94" t="s">
         <v>19</v>
       </c>
       <c r="AD40" s="60" t="s">
@@ -4322,7 +4322,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="60" t="s">
@@ -4376,7 +4376,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC41" s="93" t="s">
+      <c r="AC41" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD41" s="60" t="s">
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="60" t="s">
@@ -4438,7 +4438,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC42" s="93" t="s">
+      <c r="AC42" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD42" s="60" t="s">
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="60" t="s">
@@ -4484,7 +4484,7 @@
         <f t="shared" si="139"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC43" s="93" t="s">
+      <c r="AC43" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AD43" s="60" t="s">
@@ -4508,7 +4508,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="60" t="s">
@@ -4562,7 +4562,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC44" s="93" t="s">
+      <c r="AC44" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD44" s="60" t="s">
@@ -4586,7 +4586,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -4624,7 +4624,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC45" s="93" t="s">
+      <c r="AC45" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD45" s="60" t="s">
@@ -4648,7 +4648,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="60" t="s">
@@ -4670,7 +4670,7 @@
         <f t="shared" si="139"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC46" s="93" t="s">
+      <c r="AC46" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AD46" s="60" t="s">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="60" t="s">
@@ -4748,7 +4748,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC47" s="93" t="s">
+      <c r="AC47" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD47" s="60" t="s">
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="60" t="s">
@@ -4810,7 +4810,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC48" s="93" t="s">
+      <c r="AC48" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD48" s="60" t="s">
@@ -4834,7 +4834,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="60" t="s">
@@ -4856,7 +4856,7 @@
         <f t="shared" si="139"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC49" s="93" t="s">
+      <c r="AC49" s="94" t="s">
         <v>22</v>
       </c>
       <c r="AD49" s="60" t="s">
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="60" t="s">
@@ -4934,7 +4934,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC50" s="93" t="s">
+      <c r="AC50" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD50" s="60" t="s">
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="60" t="s">
@@ -4996,7 +4996,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC51" s="93" t="s">
+      <c r="AC51" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD51" s="60" t="s">
@@ -5020,7 +5020,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="60" t="s">
@@ -5042,7 +5042,7 @@
         <f t="shared" si="139"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC52" s="93" t="s">
+      <c r="AC52" s="94" t="s">
         <v>23</v>
       </c>
       <c r="AD52" s="60" t="s">
@@ -5066,7 +5066,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="60" t="s">
@@ -5120,7 +5120,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC53" s="95" t="s">
+      <c r="AC53" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AD53" s="60" t="s">
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="60" t="s">
@@ -5182,7 +5182,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC54" s="95" t="s">
+      <c r="AC54" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AD54" s="60" t="s">
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="60" t="s">
@@ -5228,7 +5228,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC55" s="95" t="s">
+      <c r="AC55" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AD55" s="60" t="s">
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="93" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="60" t="s">
@@ -5306,7 +5306,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC56" s="95" t="s">
+      <c r="AC56" s="93" t="s">
         <v>89</v>
       </c>
       <c r="AD56" s="60" t="s">
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="93" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="60" t="s">
@@ -5368,7 +5368,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC57" s="95" t="s">
+      <c r="AC57" s="93" t="s">
         <v>89</v>
       </c>
       <c r="AD57" s="60" t="s">
@@ -5392,7 +5392,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="93" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="60" t="s">
@@ -5414,7 +5414,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC58" s="95" t="s">
+      <c r="AC58" s="93" t="s">
         <v>89</v>
       </c>
       <c r="AD58" s="60" t="s">
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="93" t="s">
         <v>90</v>
       </c>
       <c r="B59" s="60" t="s">
@@ -5492,7 +5492,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC59" s="95" t="s">
+      <c r="AC59" s="93" t="s">
         <v>90</v>
       </c>
       <c r="AD59" s="60" t="s">
@@ -5516,7 +5516,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="93" t="s">
         <v>90</v>
       </c>
       <c r="B60" s="60" t="s">
@@ -5554,7 +5554,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC60" s="95" t="s">
+      <c r="AC60" s="93" t="s">
         <v>90</v>
       </c>
       <c r="AD60" s="60" t="s">
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="93" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="60" t="s">
@@ -5600,7 +5600,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC61" s="95" t="s">
+      <c r="AC61" s="93" t="s">
         <v>90</v>
       </c>
       <c r="AD61" s="60" t="s">
@@ -5624,7 +5624,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="60" t="s">
@@ -5678,7 +5678,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC62" s="95" t="s">
+      <c r="AC62" s="93" t="s">
         <v>91</v>
       </c>
       <c r="AD62" s="60" t="s">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B63" s="60" t="s">
@@ -5740,7 +5740,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC63" s="95" t="s">
+      <c r="AC63" s="93" t="s">
         <v>91</v>
       </c>
       <c r="AD63" s="60" t="s">
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="60" t="s">
@@ -5786,7 +5786,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC64" s="95" t="s">
+      <c r="AC64" s="93" t="s">
         <v>91</v>
       </c>
       <c r="AD64" s="60" t="s">
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="60" t="s">
@@ -5864,7 +5864,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC65" s="95" t="s">
+      <c r="AC65" s="93" t="s">
         <v>92</v>
       </c>
       <c r="AD65" s="60" t="s">
@@ -5888,7 +5888,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="60" t="s">
@@ -5926,7 +5926,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC66" s="95" t="s">
+      <c r="AC66" s="93" t="s">
         <v>92</v>
       </c>
       <c r="AD66" s="60" t="s">
@@ -5950,7 +5950,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B67" s="60" t="s">
@@ -5972,7 +5972,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC67" s="95" t="s">
+      <c r="AC67" s="93" t="s">
         <v>92</v>
       </c>
       <c r="AD67" s="60" t="s">
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A72" s="99" t="s">
+      <c r="A72" s="95" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -6079,7 +6079,7 @@
       <c r="AA72">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>70</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A73" s="100"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="AA73">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC73" s="94"/>
+      <c r="AC73" s="100"/>
       <c r="AD73" s="64" t="s">
         <v>84</v>
       </c>
@@ -6157,11 +6157,31 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="AC50:AC52"/>
+    <mergeCell ref="AC72:AC73"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AC38:AC40"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="AC44:AC46"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="AC56:AC58"/>
+    <mergeCell ref="AC59:AC61"/>
+    <mergeCell ref="AC62:AC64"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AC26:AC28"/>
+    <mergeCell ref="AC29:AC31"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AC14:AC16"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A72:A73"/>
@@ -6178,31 +6198,11 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="AC29:AC31"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC50:AC52"/>
-    <mergeCell ref="AC72:AC73"/>
-    <mergeCell ref="AC35:AC37"/>
-    <mergeCell ref="AC38:AC40"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="AC44:AC46"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AC53:AC55"/>
-    <mergeCell ref="AC56:AC58"/>
-    <mergeCell ref="AC59:AC61"/>
-    <mergeCell ref="AC62:AC64"/>
-    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8950,7 +8950,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z1)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -9039,7 +9039,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>84</v>
       </c>
@@ -9144,7 +9144,7 @@
         <f t="shared" ref="AA4:AA45" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/2, 0))</f>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC4" s="94" t="s">
+      <c r="AC4" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD4" s="64" t="s">
@@ -9233,7 +9233,7 @@
         <f t="shared" si="18"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>84</v>
       </c>
@@ -9338,7 +9338,7 @@
         <f t="shared" si="18"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD6" s="64" t="s">
@@ -9423,7 +9423,7 @@
         <f t="shared" si="18"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC7" s="94" t="s">
+      <c r="AC7" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -9524,7 +9524,7 @@
         <f t="shared" si="18"/>
         <v>-324.92552229</v>
       </c>
-      <c r="AC8" s="99" t="s">
+      <c r="AC8" s="95" t="s">
         <v>87</v>
       </c>
       <c r="AD8" s="64" t="s">
@@ -9607,7 +9607,7 @@
         <f t="shared" si="18"/>
         <v>-324.92552229</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="96"/>
       <c r="AD9" s="64" t="s">
         <v>84</v>
       </c>
@@ -9706,7 +9706,7 @@
         <f t="shared" si="18"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD10" s="64" t="s">
@@ -9791,7 +9791,7 @@
         <f t="shared" si="18"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="64" t="s">
@@ -9892,7 +9892,7 @@
         <f t="shared" si="18"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -9977,7 +9977,7 @@
         <f t="shared" si="18"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -10078,7 +10078,7 @@
         <f t="shared" si="18"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -10163,7 +10163,7 @@
         <f t="shared" si="18"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -10264,7 +10264,7 @@
         <f t="shared" si="18"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -10349,7 +10349,7 @@
         <f t="shared" si="18"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -10450,7 +10450,7 @@
         <f t="shared" si="18"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -10535,7 +10535,7 @@
         <f t="shared" si="18"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -10635,7 +10635,7 @@
         <f t="shared" si="18"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -10719,7 +10719,7 @@
         <f t="shared" si="18"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -10819,7 +10819,7 @@
         <f t="shared" si="18"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -10903,7 +10903,7 @@
         <f t="shared" si="18"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -10981,7 +10981,7 @@
         <f t="shared" si="18"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -11043,7 +11043,7 @@
         <f t="shared" si="18"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -11121,7 +11121,7 @@
         <f t="shared" si="18"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -11183,7 +11183,7 @@
         <f t="shared" si="18"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -11261,7 +11261,7 @@
         <f t="shared" si="18"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -11323,7 +11323,7 @@
         <f t="shared" si="18"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -11401,7 +11401,7 @@
         <f t="shared" si="18"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -11463,7 +11463,7 @@
         <f t="shared" si="18"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -11541,7 +11541,7 @@
         <f t="shared" si="18"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -11603,7 +11603,7 @@
         <f t="shared" si="18"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -11681,7 +11681,7 @@
         <f t="shared" si="18"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -11743,7 +11743,7 @@
         <f t="shared" si="18"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -12468,18 +12468,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AC42:AC43"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -12490,28 +12500,18 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12523,7 +12523,7 @@
   <dimension ref="B1:AC41"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17514,8 +17514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X42" sqref="X42"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20537,7 +20537,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="4" t="s">
@@ -20625,7 +20625,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="4" t="s">
         <v>25</v>
       </c>
@@ -20695,7 +20695,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="4" t="s">
         <v>8</v>
       </c>
@@ -20765,7 +20765,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="4" t="s">
         <v>26</v>
       </c>
@@ -20869,7 +20869,7 @@
         <f t="shared" ref="AA6:AA69" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z6)/4, 0))</f>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="4" t="s">
@@ -20951,7 +20951,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="100"/>
       <c r="AD7" s="4" t="s">
         <v>25</v>
       </c>
@@ -21015,7 +21015,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="4" t="s">
         <v>8</v>
       </c>
@@ -21079,7 +21079,7 @@
         <f t="shared" si="18"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="4" t="s">
         <v>26</v>
       </c>
@@ -21177,7 +21177,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="4" t="s">
@@ -21261,7 +21261,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
@@ -21329,7 +21329,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="4" t="s">
@@ -21397,7 +21397,7 @@
         <f t="shared" si="18"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="4" t="s">
@@ -21481,7 +21481,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD14" s="4" t="s">
@@ -21565,7 +21565,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD15" s="4" t="s">
@@ -21633,7 +21633,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD16" s="4" t="s">
@@ -21701,7 +21701,7 @@
         <f t="shared" si="18"/>
         <v>-294.00532565999998</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="4" t="s">
@@ -21801,7 +21801,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="4" t="s">
@@ -21885,7 +21885,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="4" t="s">
@@ -21953,7 +21953,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="4" t="s">
@@ -22021,7 +22021,7 @@
         <f t="shared" si="18"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="4" t="s">
@@ -22121,7 +22121,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="4" t="s">
@@ -22205,7 +22205,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="4" t="s">
@@ -22251,7 +22251,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="4" t="s">
@@ -22297,7 +22297,7 @@
         <f t="shared" si="18"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="4" t="s">
@@ -22375,7 +22375,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD26" s="4" t="s">
@@ -22437,7 +22437,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="4" t="s">
@@ -22483,7 +22483,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="4" t="s">
@@ -22529,7 +22529,7 @@
         <f t="shared" si="18"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="4" t="s">
@@ -22607,7 +22607,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD30" s="4" t="s">
@@ -22669,7 +22669,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD31" s="4" t="s">
@@ -22718,7 +22718,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="4" t="s">
@@ -22764,7 +22764,7 @@
         <f t="shared" si="18"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="4" t="s">
@@ -22842,7 +22842,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD34" s="4" t="s">
@@ -22904,7 +22904,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD35" s="4" t="s">
@@ -22950,7 +22950,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD36" s="4" t="s">
@@ -22999,7 +22999,7 @@
         <f t="shared" si="18"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="4" t="s">
@@ -23077,7 +23077,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD38" s="4" t="s">
@@ -23139,7 +23139,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="4" t="s">
@@ -23185,7 +23185,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="4" t="s">
@@ -23231,7 +23231,7 @@
         <f t="shared" si="18"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD41" s="4" t="s">
@@ -23309,7 +23309,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD42" s="4" t="s">
@@ -23371,7 +23371,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD43" s="4" t="s">
@@ -23417,7 +23417,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD44" s="4" t="s">
@@ -23463,7 +23463,7 @@
         <f t="shared" si="18"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD45" s="4" t="s">
@@ -23541,7 +23541,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD46" s="4" t="s">
@@ -23603,7 +23603,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD47" s="4" t="s">
@@ -23649,7 +23649,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD48" s="4" t="s">
@@ -23695,7 +23695,7 @@
         <f t="shared" si="18"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="4" t="s">
@@ -23773,7 +23773,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="4" t="s">
@@ -23835,7 +23835,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD51" s="4" t="s">
@@ -23881,7 +23881,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD52" s="4" t="s">
@@ -23927,7 +23927,7 @@
         <f t="shared" si="18"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="4" t="s">
@@ -24005,7 +24005,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="4" t="s">
@@ -24067,7 +24067,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD55" s="4" t="s">
@@ -24113,7 +24113,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD56" s="4" t="s">
@@ -24159,7 +24159,7 @@
         <f t="shared" si="18"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD57" s="4" t="s">
@@ -24237,7 +24237,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD58" s="4" t="s">
@@ -24299,7 +24299,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD59" s="4" t="s">
@@ -24345,7 +24345,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD60" s="4" t="s">
@@ -24391,7 +24391,7 @@
         <f t="shared" si="18"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD61" s="4" t="s">
@@ -24465,7 +24465,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="4" t="s">
@@ -24527,7 +24527,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD63" s="4" t="s">
@@ -24573,7 +24573,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD64" s="4" t="s">
@@ -24619,7 +24619,7 @@
         <f t="shared" si="18"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD65" s="4" t="s">
@@ -24697,7 +24697,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD66" s="4" t="s">
@@ -24759,7 +24759,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD67" s="4" t="s">
@@ -24805,7 +24805,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD68" s="4" t="s">
@@ -24851,7 +24851,7 @@
         <f t="shared" si="18"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD69" s="4" t="s">
@@ -24925,7 +24925,7 @@
         <f t="shared" ref="AA70:AA89" si="186">INDEX($Z$2:$Z$23,ROUND(ROW(Z70)/4, 0))</f>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD70" s="4" t="s">
@@ -24987,7 +24987,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD71" s="4" t="s">
@@ -25033,7 +25033,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD72" s="4" t="s">
@@ -25079,7 +25079,7 @@
         <f t="shared" si="186"/>
         <v>-276.96984746999999</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD73" s="4" t="s">
@@ -25157,7 +25157,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD74" s="4" t="s">
@@ -25219,7 +25219,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD75" s="4" t="s">
@@ -25265,7 +25265,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD76" s="4" t="s">
@@ -25311,7 +25311,7 @@
         <f t="shared" si="186"/>
         <v>-300.75971446</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD77" s="4" t="s">
@@ -25385,7 +25385,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD78" s="4" t="s">
@@ -25447,7 +25447,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD79" s="4" t="s">
@@ -25493,7 +25493,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD80" s="4" t="s">
@@ -25539,7 +25539,7 @@
         <f t="shared" si="186"/>
         <v>-300.85275204999999</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD81" s="4" t="s">
@@ -25617,7 +25617,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD82" s="4" t="s">
@@ -25679,7 +25679,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD83" s="4" t="s">
@@ -25725,7 +25725,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD84" s="4" t="s">
@@ -25771,7 +25771,7 @@
         <f t="shared" si="186"/>
         <v>-300.51581842000002</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD85" s="4" t="s">
@@ -25845,7 +25845,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD86" s="4" t="s">
@@ -25907,7 +25907,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD87" s="4" t="s">
@@ -25953,7 +25953,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD88" s="4" t="s">
@@ -25999,7 +25999,7 @@
         <f t="shared" si="186"/>
         <v>-298.67248760000001</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD89" s="4" t="s">
@@ -26024,18 +26024,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="AC70:AC73"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AC82:AC85"/>
+    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="AC66:AC69"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC14:AC17"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -26046,28 +26056,18 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC66:AC69"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC70:AC73"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AC82:AC85"/>
-    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -28892,7 +28892,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z2)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -28981,7 +28981,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -29052,7 +29052,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="64" t="s">
         <v>8</v>
       </c>
@@ -29123,7 +29123,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z5)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>26</v>
       </c>
@@ -29228,7 +29228,7 @@
         <f t="shared" ref="AA6:AA69" si="18">INDEX($Z$2:$Z$23,ROUND(ROW(Z6)/4, 0))</f>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="64" t="s">
@@ -29311,7 +29311,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="100"/>
       <c r="AD7" s="64" t="s">
         <v>25</v>
       </c>
@@ -29376,7 +29376,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="64" t="s">
         <v>8</v>
       </c>
@@ -29441,7 +29441,7 @@
         <f t="shared" si="18"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>26</v>
       </c>
@@ -29540,7 +29540,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC10" s="94" t="s">
+      <c r="AC10" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="64" t="s">
@@ -29625,7 +29625,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="64" t="s">
@@ -29694,7 +29694,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -29763,7 +29763,7 @@
         <f t="shared" si="18"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -29864,7 +29864,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -29949,7 +29949,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -30018,7 +30018,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -30087,7 +30087,7 @@
         <f t="shared" si="18"/>
         <v>-298.25988279000001</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -30188,7 +30188,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -30273,7 +30273,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -30342,7 +30342,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -30411,7 +30411,7 @@
         <f t="shared" si="18"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -30511,7 +30511,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -30595,7 +30595,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -30641,7 +30641,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -30687,7 +30687,7 @@
         <f t="shared" si="18"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -30765,7 +30765,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -30827,7 +30827,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -30873,7 +30873,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -30919,7 +30919,7 @@
         <f t="shared" si="18"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -30997,7 +30997,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -31059,7 +31059,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -31105,7 +31105,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -31151,7 +31151,7 @@
         <f t="shared" si="18"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -31229,7 +31229,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -31291,7 +31291,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -31337,7 +31337,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -31383,7 +31383,7 @@
         <f t="shared" si="18"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -31461,7 +31461,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -31523,7 +31523,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -31569,7 +31569,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -31615,7 +31615,7 @@
         <f t="shared" si="18"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -31693,7 +31693,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -31755,7 +31755,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -31801,7 +31801,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -31847,7 +31847,7 @@
         <f t="shared" si="18"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -31925,7 +31925,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -31987,7 +31987,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -32033,7 +32033,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -32079,7 +32079,7 @@
         <f t="shared" si="18"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -32157,7 +32157,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -32219,7 +32219,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -32265,7 +32265,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -32311,7 +32311,7 @@
         <f t="shared" si="18"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -32389,7 +32389,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -32451,7 +32451,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -32497,7 +32497,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -32543,7 +32543,7 @@
         <f t="shared" si="18"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -32621,7 +32621,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -32683,7 +32683,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -32729,7 +32729,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -32775,7 +32775,7 @@
         <f t="shared" si="18"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -32853,7 +32853,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -32915,7 +32915,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -32961,7 +32961,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -33007,7 +33007,7 @@
         <f t="shared" si="18"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -33085,7 +33085,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -33147,7 +33147,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -33193,7 +33193,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -33239,7 +33239,7 @@
         <f t="shared" si="18"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -33317,7 +33317,7 @@
         <f t="shared" ref="AA70:AA89" si="192">INDEX($Z$2:$Z$23,ROUND(ROW(Z70)/4, 0))</f>
         <v>-271.78683529</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -33379,7 +33379,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -33425,7 +33425,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -33471,7 +33471,7 @@
         <f t="shared" si="192"/>
         <v>-271.78683529</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -33549,7 +33549,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -33611,7 +33611,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -33657,7 +33657,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -33703,7 +33703,7 @@
         <f t="shared" si="192"/>
         <v>-308.00527776000001</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -33781,7 +33781,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -33843,7 +33843,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -33889,7 +33889,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -33935,7 +33935,7 @@
         <f t="shared" si="192"/>
         <v>-308.14208563</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -34013,7 +34013,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -34075,7 +34075,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -34121,7 +34121,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -34167,7 +34167,7 @@
         <f t="shared" si="192"/>
         <v>-308.02827803000002</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -34245,7 +34245,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -34307,7 +34307,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -34353,7 +34353,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -34399,7 +34399,7 @@
         <f t="shared" si="192"/>
         <v>-304.88707574</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -34424,18 +34424,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="AC70:AC73"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AC82:AC85"/>
+    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="AC66:AC69"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC14:AC17"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -34446,28 +34456,18 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC66:AC69"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC70:AC73"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AC82:AC85"/>
-    <mergeCell ref="AC86:AC89"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -37292,7 +37292,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -37381,7 +37381,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -37452,7 +37452,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="64" t="s">
         <v>8</v>
       </c>
@@ -37523,7 +37523,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>26</v>
       </c>
@@ -37594,7 +37594,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC6" s="94"/>
+      <c r="AC6" s="100"/>
       <c r="AD6" s="64" t="s">
         <v>28</v>
       </c>
@@ -37693,7 +37693,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC7" s="94" t="s">
+      <c r="AC7" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -37776,7 +37776,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="64" t="s">
         <v>25</v>
       </c>
@@ -37841,7 +37841,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>8</v>
       </c>
@@ -37906,7 +37906,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC10" s="94"/>
+      <c r="AC10" s="100"/>
       <c r="AD10" s="64" t="s">
         <v>26</v>
       </c>
@@ -37971,7 +37971,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC11" s="94"/>
+      <c r="AC11" s="100"/>
       <c r="AD11" s="64" t="s">
         <v>28</v>
       </c>
@@ -38070,7 +38070,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -38155,7 +38155,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -38224,7 +38224,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -38293,7 +38293,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -38362,7 +38362,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -38463,7 +38463,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC17" s="94" t="s">
+      <c r="AC17" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -38548,7 +38548,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD18" s="64" t="s">
@@ -38617,7 +38617,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD19" s="64" t="s">
@@ -38686,7 +38686,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC20" s="94" t="s">
+      <c r="AC20" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD20" s="64" t="s">
@@ -38755,7 +38755,7 @@
         <f t="shared" si="7"/>
         <v>-302.80155216999998</v>
       </c>
-      <c r="AC21" s="94" t="s">
+      <c r="AC21" s="100" t="s">
         <v>87</v>
       </c>
       <c r="AD21" s="64" t="s">
@@ -38856,7 +38856,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -38940,7 +38940,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -38986,7 +38986,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -39032,7 +39032,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -39078,7 +39078,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -39156,7 +39156,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -39218,7 +39218,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -39264,7 +39264,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -39310,7 +39310,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -39356,7 +39356,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -39434,7 +39434,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -39496,7 +39496,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -39542,7 +39542,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -39588,7 +39588,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -39634,7 +39634,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -39712,7 +39712,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -39774,7 +39774,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -39820,7 +39820,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -39866,7 +39866,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -39912,7 +39912,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -39990,7 +39990,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -40052,7 +40052,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -40098,7 +40098,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -40144,7 +40144,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -40190,7 +40190,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -40268,7 +40268,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -40330,7 +40330,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -40376,7 +40376,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -40422,7 +40422,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -40468,7 +40468,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -40546,7 +40546,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -40608,7 +40608,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -40654,7 +40654,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -40700,7 +40700,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -40746,7 +40746,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -40824,7 +40824,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -40886,7 +40886,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -40932,7 +40932,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -40978,7 +40978,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -41024,7 +41024,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -41102,7 +41102,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -41164,7 +41164,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -41210,7 +41210,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -41256,7 +41256,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -41302,7 +41302,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -41380,7 +41380,7 @@
         <f t="shared" ref="AA67:AA111" si="154">INDEX($Z$2:$Z$23,ROUND(ROW(Z68)/5, 0))</f>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -41442,7 +41442,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -41488,7 +41488,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -41534,7 +41534,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -41580,7 +41580,7 @@
         <f t="shared" si="154"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -41658,7 +41658,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -41720,7 +41720,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -41766,7 +41766,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -41812,7 +41812,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -41858,7 +41858,7 @@
         <f t="shared" si="154"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -41936,7 +41936,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -41998,7 +41998,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -42044,7 +42044,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -42090,7 +42090,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -42136,7 +42136,7 @@
         <f t="shared" si="154"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -42214,7 +42214,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -42276,7 +42276,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -42322,7 +42322,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -42368,7 +42368,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -42414,7 +42414,7 @@
         <f t="shared" si="154"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -42492,7 +42492,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -42554,7 +42554,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -42600,7 +42600,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -42646,7 +42646,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC90" s="94" t="s">
+      <c r="AC90" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD90" s="64" t="s">
@@ -42692,7 +42692,7 @@
         <f t="shared" si="154"/>
         <v>-266.82272604000002</v>
       </c>
-      <c r="AC91" s="94" t="s">
+      <c r="AC91" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD91" s="64" t="s">
@@ -42770,7 +42770,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC92" s="94" t="s">
+      <c r="AC92" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD92" s="64" t="s">
@@ -42832,7 +42832,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC93" s="94" t="s">
+      <c r="AC93" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD93" s="64" t="s">
@@ -42878,7 +42878,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC94" s="94" t="s">
+      <c r="AC94" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD94" s="64" t="s">
@@ -42924,7 +42924,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC95" s="94" t="s">
+      <c r="AC95" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD95" s="64" t="s">
@@ -42970,7 +42970,7 @@
         <f t="shared" si="154"/>
         <v>-315.25556746000001</v>
       </c>
-      <c r="AC96" s="94" t="s">
+      <c r="AC96" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD96" s="64" t="s">
@@ -43048,7 +43048,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC97" s="94" t="s">
+      <c r="AC97" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD97" s="64" t="s">
@@ -43110,7 +43110,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC98" s="94" t="s">
+      <c r="AC98" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD98" s="64" t="s">
@@ -43156,7 +43156,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC99" s="94" t="s">
+      <c r="AC99" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD99" s="64" t="s">
@@ -43202,7 +43202,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC100" s="94" t="s">
+      <c r="AC100" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD100" s="64" t="s">
@@ -43248,7 +43248,7 @@
         <f t="shared" si="154"/>
         <v>-315.89774790000001</v>
       </c>
-      <c r="AC101" s="94" t="s">
+      <c r="AC101" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD101" s="64" t="s">
@@ -43326,7 +43326,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC102" s="94" t="s">
+      <c r="AC102" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD102" s="64" t="s">
@@ -43388,7 +43388,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC103" s="94" t="s">
+      <c r="AC103" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD103" s="64" t="s">
@@ -43434,7 +43434,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC104" s="94" t="s">
+      <c r="AC104" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD104" s="64" t="s">
@@ -43480,7 +43480,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC105" s="94" t="s">
+      <c r="AC105" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD105" s="64" t="s">
@@ -43526,7 +43526,7 @@
         <f t="shared" si="154"/>
         <v>-315.67879628999998</v>
       </c>
-      <c r="AC106" s="94" t="s">
+      <c r="AC106" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD106" s="64" t="s">
@@ -43604,7 +43604,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC107" s="94" t="s">
+      <c r="AC107" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD107" s="64" t="s">
@@ -43666,7 +43666,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC108" s="94" t="s">
+      <c r="AC108" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD108" s="64" t="s">
@@ -43712,7 +43712,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC109" s="94" t="s">
+      <c r="AC109" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD109" s="64" t="s">
@@ -43758,7 +43758,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC110" s="94" t="s">
+      <c r="AC110" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD110" s="64" t="s">
@@ -43804,7 +43804,7 @@
         <f t="shared" si="154"/>
         <v>-311.59403677</v>
       </c>
-      <c r="AC111" s="94" t="s">
+      <c r="AC111" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD111" s="64" t="s">
@@ -43829,18 +43829,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="AC87:AC91"/>
+    <mergeCell ref="AC92:AC96"/>
+    <mergeCell ref="AC97:AC101"/>
+    <mergeCell ref="AC102:AC106"/>
+    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="AC82:AC86"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC17:AC21"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="A77:A81"/>
@@ -43851,28 +43861,18 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC82:AC86"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC87:AC91"/>
-    <mergeCell ref="AC92:AC96"/>
-    <mergeCell ref="AC97:AC101"/>
-    <mergeCell ref="AC102:AC106"/>
-    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -43881,7 +43881,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC41"/>
+  <dimension ref="B1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
@@ -46138,6 +46138,16 @@
     <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="U27" s="10"/>
       <c r="V27" s="11"/>
+      <c r="AB27" s="11">
+        <f>AB3-Y3</f>
+        <v>0.76172622000002299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="AB28" s="11">
+        <f t="shared" ref="AB28:AB49" ca="1" si="28">AB4-Y4</f>
+        <v>-1.1287197000000244</v>
+      </c>
     </row>
     <row r="29" spans="2:29" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q29" s="105" t="s">
@@ -46151,6 +46161,10 @@
       <c r="W29" s="105"/>
       <c r="X29" s="105"/>
       <c r="Y29" s="105"/>
+      <c r="AB29" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.73036237000001414</v>
+      </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q30" s="20"/>
@@ -46178,6 +46192,10 @@
       <c r="Y30" s="23" t="s">
         <v>63</v>
       </c>
+      <c r="AB30" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.47484548999999809</v>
+      </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q31" s="24" t="s">
@@ -46206,6 +46224,10 @@
         <f>V31+W31</f>
         <v>-7.0960000000000001</v>
       </c>
+      <c r="AB31" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.5877692099999674</v>
+      </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q32" s="24" t="s">
@@ -46233,6 +46255,10 @@
       <c r="Y32" s="26">
         <f>V32+W32</f>
         <v>-18.417999999999999</v>
+      </c>
+      <c r="AB32" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-5.7083139999965837E-2</v>
       </c>
     </row>
     <row r="33" spans="17:29" x14ac:dyDescent="0.35">
@@ -46260,6 +46286,10 @@
         <f>V33</f>
         <v>-12.827</v>
       </c>
+      <c r="AB33" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.12493686000000004</v>
+      </c>
     </row>
     <row r="34" spans="17:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q34" s="27" t="s">
@@ -46290,12 +46320,21 @@
         <f>SUM(S34:U34)</f>
         <v>-0.44500000000000006</v>
       </c>
+      <c r="AB34" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.22760521000004452</v>
+      </c>
       <c r="AC34" s="11">
         <f>Z34-Y40</f>
         <v>-0.45500000000000007</v>
       </c>
     </row>
-    <row r="35" spans="17:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="17:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB35" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.21737760000002915</v>
+      </c>
+    </row>
     <row r="36" spans="17:29" x14ac:dyDescent="0.35">
       <c r="Q36" s="20" t="s">
         <v>64</v>
@@ -46323,6 +46362,10 @@
       </c>
       <c r="Y36" s="23" t="s">
         <v>63</v>
+      </c>
+      <c r="AB36" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.14559180999997601</v>
       </c>
     </row>
     <row r="37" spans="17:29" x14ac:dyDescent="0.35">
@@ -46350,6 +46393,10 @@
         <f>V37</f>
         <v>-</v>
       </c>
+      <c r="AB37" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.51437782999999193</v>
+      </c>
     </row>
     <row r="38" spans="17:29" x14ac:dyDescent="0.35">
       <c r="Q38" s="24" t="s">
@@ -46377,6 +46424,10 @@
         <f>V38</f>
         <v>0.189</v>
       </c>
+      <c r="AB38" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.80471806000001855</v>
+      </c>
     </row>
     <row r="39" spans="17:29" x14ac:dyDescent="0.35">
       <c r="Q39" s="24" t="s">
@@ -46408,6 +46459,10 @@
         <f>V39+W39+X39</f>
         <v>0.48599999999999999</v>
       </c>
+      <c r="AB39" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-1.1775813199999927</v>
+      </c>
     </row>
     <row r="40" spans="17:29" x14ac:dyDescent="0.35">
       <c r="Q40" s="24" t="s">
@@ -46436,6 +46491,10 @@
       <c r="Y40" s="31">
         <f>V40+X40</f>
         <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AB40" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.77289044000001716</v>
       </c>
     </row>
     <row r="41" spans="17:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46463,6 +46522,58 @@
       <c r="Y41" s="35">
         <f>V41</f>
         <v>0.308</v>
+      </c>
+      <c r="AB41" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.40539839999995841</v>
+      </c>
+    </row>
+    <row r="42" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB42" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.32526221000001421</v>
+      </c>
+    </row>
+    <row r="43" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB43" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.65161615000000417</v>
+      </c>
+    </row>
+    <row r="44" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB44" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>3.0077749999984249E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB45" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.27101841000000171</v>
+      </c>
+    </row>
+    <row r="46" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB46" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-1.1423869499999935</v>
+      </c>
+    </row>
+    <row r="47" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB47" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.93115988999999466</v>
+      </c>
+    </row>
+    <row r="48" spans="17:29" x14ac:dyDescent="0.35">
+      <c r="AB48" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.2910269100000189</v>
+      </c>
+    </row>
+    <row r="49" spans="28:28" x14ac:dyDescent="0.35">
+      <c r="AB49" s="11">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.11962270999999625</v>
       </c>
     </row>
   </sheetData>
@@ -46628,7 +46739,7 @@
         <f>INDEX($Z$2:$Z$23,ROUND(ROW(Z3)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="64" t="s">
@@ -46717,7 +46828,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$23,ROUND(ROW(Z4)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC3" s="94"/>
+      <c r="AC3" s="100"/>
       <c r="AD3" s="64" t="s">
         <v>25</v>
       </c>
@@ -46788,7 +46899,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC4" s="94"/>
+      <c r="AC4" s="100"/>
       <c r="AD4" s="64" t="s">
         <v>32</v>
       </c>
@@ -46859,7 +46970,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC5" s="94"/>
+      <c r="AC5" s="100"/>
       <c r="AD5" s="64" t="s">
         <v>8</v>
       </c>
@@ -46930,7 +47041,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC6" s="94"/>
+      <c r="AC6" s="100"/>
       <c r="AD6" s="64" t="s">
         <v>26</v>
       </c>
@@ -47029,7 +47140,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC7" s="94" t="s">
+      <c r="AC7" s="100" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="64" t="s">
@@ -47112,7 +47223,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="100"/>
       <c r="AD8" s="64" t="s">
         <v>25</v>
       </c>
@@ -47177,7 +47288,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC9" s="94"/>
+      <c r="AC9" s="100"/>
       <c r="AD9" s="64" t="s">
         <v>32</v>
       </c>
@@ -47242,7 +47353,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC10" s="94"/>
+      <c r="AC10" s="100"/>
       <c r="AD10" s="64" t="s">
         <v>8</v>
       </c>
@@ -47307,7 +47418,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC11" s="94"/>
+      <c r="AC11" s="100"/>
       <c r="AD11" s="64" t="s">
         <v>26</v>
       </c>
@@ -47406,7 +47517,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC12" s="94" t="s">
+      <c r="AC12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="64" t="s">
@@ -47491,7 +47602,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC13" s="94" t="s">
+      <c r="AC13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="64" t="s">
@@ -47560,7 +47671,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC14" s="94" t="s">
+      <c r="AC14" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="64" t="s">
@@ -47629,7 +47740,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC15" s="94" t="s">
+      <c r="AC15" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="64" t="s">
@@ -47698,7 +47809,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC16" s="94" t="s">
+      <c r="AC16" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="64" t="s">
@@ -47722,7 +47833,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="106" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -47799,7 +47910,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC17" s="106" t="s">
+      <c r="AC17" s="109" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="64" t="s">
@@ -47823,7 +47934,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="110"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="60" t="s">
         <v>25</v>
       </c>
@@ -47882,7 +47993,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC18" s="107"/>
+      <c r="AC18" s="110"/>
       <c r="AD18" s="64" t="s">
         <v>25</v>
       </c>
@@ -47904,7 +48015,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="110"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="60" t="s">
         <v>32</v>
       </c>
@@ -47947,7 +48058,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC19" s="107"/>
+      <c r="AC19" s="110"/>
       <c r="AD19" s="64" t="s">
         <v>32</v>
       </c>
@@ -47969,7 +48080,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
@@ -48012,7 +48123,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC20" s="107"/>
+      <c r="AC20" s="110"/>
       <c r="AD20" s="64" t="s">
         <v>8</v>
       </c>
@@ -48034,7 +48145,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="111"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="60" t="s">
         <v>26</v>
       </c>
@@ -48077,7 +48188,7 @@
         <f t="shared" si="7"/>
         <v>-301.84630412000001</v>
       </c>
-      <c r="AC21" s="108"/>
+      <c r="AC21" s="111"/>
       <c r="AD21" s="64" t="s">
         <v>26</v>
       </c>
@@ -48176,7 +48287,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC22" s="94" t="s">
+      <c r="AC22" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="64" t="s">
@@ -48260,7 +48371,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC23" s="94" t="s">
+      <c r="AC23" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="64" t="s">
@@ -48306,7 +48417,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC24" s="94" t="s">
+      <c r="AC24" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="64" t="s">
@@ -48352,7 +48463,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC25" s="94" t="s">
+      <c r="AC25" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="64" t="s">
@@ -48398,7 +48509,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC26" s="94" t="s">
+      <c r="AC26" s="100" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="64" t="s">
@@ -48476,7 +48587,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC27" s="94" t="s">
+      <c r="AC27" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="64" t="s">
@@ -48538,7 +48649,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC28" s="94" t="s">
+      <c r="AC28" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD28" s="64" t="s">
@@ -48584,7 +48695,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC29" s="94" t="s">
+      <c r="AC29" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD29" s="64" t="s">
@@ -48630,7 +48741,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD30" s="64" t="s">
@@ -48676,7 +48787,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="100" t="s">
         <v>12</v>
       </c>
       <c r="AD31" s="64" t="s">
@@ -48754,7 +48865,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC32" s="94" t="s">
+      <c r="AC32" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD32" s="64" t="s">
@@ -48816,7 +48927,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC33" s="94" t="s">
+      <c r="AC33" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD33" s="64" t="s">
@@ -48862,7 +48973,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC34" s="94" t="s">
+      <c r="AC34" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD34" s="64" t="s">
@@ -48908,7 +49019,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC35" s="94" t="s">
+      <c r="AC35" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="64" t="s">
@@ -48954,7 +49065,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC36" s="94" t="s">
+      <c r="AC36" s="100" t="s">
         <v>13</v>
       </c>
       <c r="AD36" s="64" t="s">
@@ -49032,7 +49143,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC37" s="94" t="s">
+      <c r="AC37" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD37" s="64" t="s">
@@ -49094,7 +49205,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC38" s="94" t="s">
+      <c r="AC38" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD38" s="64" t="s">
@@ -49140,7 +49251,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC39" s="94" t="s">
+      <c r="AC39" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD39" s="64" t="s">
@@ -49186,7 +49297,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC40" s="94" t="s">
+      <c r="AC40" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD40" s="64" t="s">
@@ -49232,7 +49343,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC41" s="94" t="s">
+      <c r="AC41" s="100" t="s">
         <v>14</v>
       </c>
       <c r="AD41" s="64" t="s">
@@ -49310,7 +49421,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC42" s="94" t="s">
+      <c r="AC42" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD42" s="64" t="s">
@@ -49372,7 +49483,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD43" s="64" t="s">
@@ -49418,7 +49529,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC44" s="94" t="s">
+      <c r="AC44" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD44" s="64" t="s">
@@ -49464,7 +49575,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC45" s="94" t="s">
+      <c r="AC45" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD45" s="64" t="s">
@@ -49510,7 +49621,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC46" s="94" t="s">
+      <c r="AC46" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AD46" s="64" t="s">
@@ -49588,7 +49699,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC47" s="94" t="s">
+      <c r="AC47" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD47" s="64" t="s">
@@ -49650,7 +49761,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC48" s="94" t="s">
+      <c r="AC48" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD48" s="64" t="s">
@@ -49696,7 +49807,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD49" s="64" t="s">
@@ -49742,7 +49853,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC50" s="94" t="s">
+      <c r="AC50" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="64" t="s">
@@ -49788,7 +49899,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC51" s="94" t="s">
+      <c r="AC51" s="100" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="64" t="s">
@@ -49866,7 +49977,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC52" s="94" t="s">
+      <c r="AC52" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="64" t="s">
@@ -49928,7 +50039,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC53" s="94" t="s">
+      <c r="AC53" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD53" s="64" t="s">
@@ -49974,7 +50085,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC54" s="94" t="s">
+      <c r="AC54" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD54" s="64" t="s">
@@ -50020,7 +50131,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC55" s="94" t="s">
+      <c r="AC55" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD55" s="64" t="s">
@@ -50066,7 +50177,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC56" s="94" t="s">
+      <c r="AC56" s="100" t="s">
         <v>17</v>
       </c>
       <c r="AD56" s="64" t="s">
@@ -50144,7 +50255,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC57" s="94" t="s">
+      <c r="AC57" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="64" t="s">
@@ -50206,7 +50317,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC58" s="94" t="s">
+      <c r="AC58" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="64" t="s">
@@ -50252,7 +50363,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC59" s="94" t="s">
+      <c r="AC59" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="64" t="s">
@@ -50298,7 +50409,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC60" s="94" t="s">
+      <c r="AC60" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="64" t="s">
@@ -50344,7 +50455,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC61" s="94" t="s">
+      <c r="AC61" s="100" t="s">
         <v>18</v>
       </c>
       <c r="AD61" s="64" t="s">
@@ -50422,7 +50533,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD62" s="64" t="s">
@@ -50484,7 +50595,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD63" s="64" t="s">
@@ -50530,7 +50641,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC64" s="94" t="s">
+      <c r="AC64" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD64" s="64" t="s">
@@ -50576,7 +50687,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC65" s="94" t="s">
+      <c r="AC65" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD65" s="64" t="s">
@@ -50622,7 +50733,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC66" s="94" t="s">
+      <c r="AC66" s="100" t="s">
         <v>19</v>
       </c>
       <c r="AD66" s="64" t="s">
@@ -50700,7 +50811,7 @@
         <f t="shared" ref="AA67:AA111" si="150">INDEX($Z$2:$Z$23,ROUND(ROW(Z68)/5, 0))</f>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC67" s="94" t="s">
+      <c r="AC67" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD67" s="64" t="s">
@@ -50762,7 +50873,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC68" s="94" t="s">
+      <c r="AC68" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD68" s="64" t="s">
@@ -50808,7 +50919,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC69" s="94" t="s">
+      <c r="AC69" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD69" s="64" t="s">
@@ -50854,7 +50965,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC70" s="94" t="s">
+      <c r="AC70" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD70" s="64" t="s">
@@ -50900,7 +51011,7 @@
         <f t="shared" si="150"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC71" s="94" t="s">
+      <c r="AC71" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AD71" s="64" t="s">
@@ -50978,7 +51089,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC72" s="94" t="s">
+      <c r="AC72" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD72" s="64" t="s">
@@ -51040,7 +51151,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC73" s="94" t="s">
+      <c r="AC73" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD73" s="64" t="s">
@@ -51086,7 +51197,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC74" s="94" t="s">
+      <c r="AC74" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD74" s="64" t="s">
@@ -51132,7 +51243,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC75" s="94" t="s">
+      <c r="AC75" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD75" s="64" t="s">
@@ -51178,7 +51289,7 @@
         <f t="shared" si="150"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC76" s="94" t="s">
+      <c r="AC76" s="100" t="s">
         <v>21</v>
       </c>
       <c r="AD76" s="64" t="s">
@@ -51256,7 +51367,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC77" s="94" t="s">
+      <c r="AC77" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD77" s="64" t="s">
@@ -51318,7 +51429,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC78" s="94" t="s">
+      <c r="AC78" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD78" s="64" t="s">
@@ -51364,7 +51475,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC79" s="94" t="s">
+      <c r="AC79" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD79" s="64" t="s">
@@ -51410,7 +51521,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC80" s="94" t="s">
+      <c r="AC80" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD80" s="64" t="s">
@@ -51456,7 +51567,7 @@
         <f t="shared" si="150"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC81" s="94" t="s">
+      <c r="AC81" s="100" t="s">
         <v>22</v>
       </c>
       <c r="AD81" s="64" t="s">
@@ -51534,7 +51645,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC82" s="94" t="s">
+      <c r="AC82" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD82" s="64" t="s">
@@ -51596,7 +51707,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC83" s="94" t="s">
+      <c r="AC83" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD83" s="64" t="s">
@@ -51642,7 +51753,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC84" s="94" t="s">
+      <c r="AC84" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD84" s="64" t="s">
@@ -51688,7 +51799,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC85" s="94" t="s">
+      <c r="AC85" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD85" s="64" t="s">
@@ -51734,7 +51845,7 @@
         <f t="shared" si="150"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC86" s="94" t="s">
+      <c r="AC86" s="100" t="s">
         <v>23</v>
       </c>
       <c r="AD86" s="64" t="s">
@@ -51812,7 +51923,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC87" s="94" t="s">
+      <c r="AC87" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD87" s="64" t="s">
@@ -51874,7 +51985,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC88" s="94" t="s">
+      <c r="AC88" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD88" s="64" t="s">
@@ -51920,7 +52031,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC89" s="94" t="s">
+      <c r="AC89" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD89" s="64" t="s">
@@ -51966,7 +52077,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC90" s="94" t="s">
+      <c r="AC90" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD90" s="64" t="s">
@@ -52012,7 +52123,7 @@
         <f t="shared" si="150"/>
         <v>-267.64415995000002</v>
       </c>
-      <c r="AC91" s="94" t="s">
+      <c r="AC91" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AD91" s="64" t="s">
@@ -52090,7 +52201,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC92" s="94" t="s">
+      <c r="AC92" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD92" s="64" t="s">
@@ -52152,7 +52263,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC93" s="94" t="s">
+      <c r="AC93" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD93" s="64" t="s">
@@ -52198,7 +52309,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC94" s="94" t="s">
+      <c r="AC94" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD94" s="64" t="s">
@@ -52244,7 +52355,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC95" s="94" t="s">
+      <c r="AC95" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD95" s="64" t="s">
@@ -52290,7 +52401,7 @@
         <f t="shared" si="150"/>
         <v>-315.43659147</v>
       </c>
-      <c r="AC96" s="94" t="s">
+      <c r="AC96" s="100" t="s">
         <v>89</v>
       </c>
       <c r="AD96" s="64" t="s">
@@ -52368,7 +52479,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC97" s="94" t="s">
+      <c r="AC97" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD97" s="64" t="s">
@@ -52430,7 +52541,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC98" s="94" t="s">
+      <c r="AC98" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD98" s="64" t="s">
@@ -52476,7 +52587,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC99" s="94" t="s">
+      <c r="AC99" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD99" s="64" t="s">
@@ -52522,7 +52633,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC100" s="94" t="s">
+      <c r="AC100" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD100" s="64" t="s">
@@ -52568,7 +52679,7 @@
         <f t="shared" si="150"/>
         <v>-316.08358859999998</v>
       </c>
-      <c r="AC101" s="94" t="s">
+      <c r="AC101" s="100" t="s">
         <v>90</v>
       </c>
       <c r="AD101" s="64" t="s">
@@ -52646,7 +52757,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC102" s="94" t="s">
+      <c r="AC102" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD102" s="64" t="s">
@@ -52708,7 +52819,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC103" s="94" t="s">
+      <c r="AC103" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD103" s="64" t="s">
@@ -52754,7 +52865,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC104" s="94" t="s">
+      <c r="AC104" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD104" s="64" t="s">
@@ -52800,7 +52911,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC105" s="94" t="s">
+      <c r="AC105" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD105" s="64" t="s">
@@ -52846,7 +52957,7 @@
         <f t="shared" si="150"/>
         <v>-315.54970372000002</v>
       </c>
-      <c r="AC106" s="94" t="s">
+      <c r="AC106" s="100" t="s">
         <v>91</v>
       </c>
       <c r="AD106" s="64" t="s">
@@ -52924,7 +53035,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC107" s="94" t="s">
+      <c r="AC107" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD107" s="64" t="s">
@@ -52986,7 +53097,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC108" s="94" t="s">
+      <c r="AC108" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD108" s="64" t="s">
@@ -53032,7 +53143,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC109" s="94" t="s">
+      <c r="AC109" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD109" s="64" t="s">
@@ -53078,7 +53189,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC110" s="94" t="s">
+      <c r="AC110" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD110" s="64" t="s">
@@ -53124,7 +53235,7 @@
         <f t="shared" si="150"/>
         <v>-311.37267338999999</v>
       </c>
-      <c r="AC111" s="94" t="s">
+      <c r="AC111" s="100" t="s">
         <v>92</v>
       </c>
       <c r="AD111" s="64" t="s">
@@ -53149,18 +53260,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="AC87:AC91"/>
+    <mergeCell ref="AC92:AC96"/>
+    <mergeCell ref="AC97:AC101"/>
+    <mergeCell ref="AC102:AC106"/>
+    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="AC82:AC86"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC17:AC21"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="A77:A81"/>
@@ -53171,28 +53292,18 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC82:AC86"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC87:AC91"/>
-    <mergeCell ref="AC92:AC96"/>
-    <mergeCell ref="AC97:AC101"/>
-    <mergeCell ref="AC102:AC106"/>
-    <mergeCell ref="AC107:AC111"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/myproject/version3/sites.xlsx
+++ b/plotpackage/myproject/version3/sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="12" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +508,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -751,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1042,6 +1048,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -1325,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView topLeftCell="B30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AH67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5120,7 +5129,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC53" s="93" t="s">
+      <c r="AC53" s="116" t="s">
         <v>88</v>
       </c>
       <c r="AD53" s="60" t="s">
@@ -5182,7 +5191,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC54" s="93" t="s">
+      <c r="AC54" s="116" t="s">
         <v>88</v>
       </c>
       <c r="AD54" s="60" t="s">
@@ -5228,7 +5237,7 @@
         <f t="shared" si="139"/>
         <v>-281.51879152999999</v>
       </c>
-      <c r="AC55" s="93" t="s">
+      <c r="AC55" s="116" t="s">
         <v>88</v>
       </c>
       <c r="AD55" s="60" t="s">
@@ -5306,7 +5315,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC56" s="93" t="s">
+      <c r="AC56" s="116" t="s">
         <v>89</v>
       </c>
       <c r="AD56" s="60" t="s">
@@ -5368,7 +5377,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC57" s="93" t="s">
+      <c r="AC57" s="116" t="s">
         <v>89</v>
       </c>
       <c r="AD57" s="60" t="s">
@@ -5414,7 +5423,7 @@
         <f t="shared" si="139"/>
         <v>-293.31298157999998</v>
       </c>
-      <c r="AC58" s="93" t="s">
+      <c r="AC58" s="116" t="s">
         <v>89</v>
       </c>
       <c r="AD58" s="60" t="s">
@@ -5492,7 +5501,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC59" s="93" t="s">
+      <c r="AC59" s="116" t="s">
         <v>90</v>
       </c>
       <c r="AD59" s="60" t="s">
@@ -5554,7 +5563,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC60" s="93" t="s">
+      <c r="AC60" s="116" t="s">
         <v>90</v>
       </c>
       <c r="AD60" s="60" t="s">
@@ -5600,7 +5609,7 @@
         <f t="shared" si="139"/>
         <v>-293.21578205999998</v>
       </c>
-      <c r="AC61" s="93" t="s">
+      <c r="AC61" s="116" t="s">
         <v>90</v>
       </c>
       <c r="AD61" s="60" t="s">
@@ -5678,7 +5687,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC62" s="93" t="s">
+      <c r="AC62" s="116" t="s">
         <v>91</v>
       </c>
       <c r="AD62" s="60" t="s">
@@ -5740,7 +5749,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC63" s="93" t="s">
+      <c r="AC63" s="116" t="s">
         <v>91</v>
       </c>
       <c r="AD63" s="60" t="s">
@@ -5786,7 +5795,7 @@
         <f t="shared" si="139"/>
         <v>-292.85849357000001</v>
       </c>
-      <c r="AC64" s="93" t="s">
+      <c r="AC64" s="116" t="s">
         <v>91</v>
       </c>
       <c r="AD64" s="60" t="s">
@@ -5864,7 +5873,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC65" s="93" t="s">
+      <c r="AC65" s="116" t="s">
         <v>92</v>
       </c>
       <c r="AD65" s="60" t="s">
@@ -5926,7 +5935,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC66" s="93" t="s">
+      <c r="AC66" s="116" t="s">
         <v>92</v>
       </c>
       <c r="AD66" s="60" t="s">
@@ -5972,7 +5981,7 @@
         <f t="shared" si="139"/>
         <v>-292.01138221000002</v>
       </c>
-      <c r="AC67" s="93" t="s">
+      <c r="AC67" s="116" t="s">
         <v>92</v>
       </c>
       <c r="AD67" s="60" t="s">
@@ -6213,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8801,8 +8810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12523,7 +12532,7 @@
   <dimension ref="B1:AC41"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15816,7 +15825,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="O3" sqref="O3:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17514,8 +17523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AH44" sqref="AH44"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20391,7 +20400,7 @@
   <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="AC2" sqref="AC2:AH89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26078,8 +26087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView topLeftCell="N12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28744,8 +28753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="B39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AH89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34478,8 +34487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37144,8 +37153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AH111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43883,8 +43892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="K25" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46591,8 +46600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC77" sqref="AC77:AH81"/>
+    <sheetView topLeftCell="M79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AH111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
